--- a/Data Analysis/New Base Data/All Clusters In Dataset/G1.xlsx
+++ b/Data Analysis/New Base Data/All Clusters In Dataset/G1.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ddc81097063262a/Desktop/UTEP-Brain-Computation-Lab-Remote-Databases-and-Serendipity-App/Data Analysis/New Base Data/All Clusters In Dataset/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_714DA9D7CD5482CDF5A777A4E8012D16618AA9EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45B85E7E-15B0-45D7-871F-247FE8371225}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="5010" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1662,7 +1669,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1677,7 +1684,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1685,6037 +1692,6345 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C546"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.6015625" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>546</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>11.003849078565841</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>9.3766616120750381</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>10.768750072679156</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>9.1827975950794034</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>11.023168873994628</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>9.3784902509644095</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>11.023168873994628</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>9.3784902509644095</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>9.964478599050306</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>8.2929502122761587</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>11.008660610212489</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>9.4143401337719226</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>11.001786303991691</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>9.2301235228731802</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>11.011030290416333</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>9.2195844615594513</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>11.006702147570209</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>9.2304467296546164</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>11.006702147570209</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>9.2304467296546164</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>10.963676031605608</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>9.9494586510666441</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>10.827972192867861</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>9.7658406851286017</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>11.065427840136804</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>9.8472382222271619</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>10.394397271467176</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>8.8364463217205795</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>10.311435865345176</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>9.0336818103531531</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>11.252806255774473</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>10.250043800537727</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>11.252806255774473</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>10.250043800537727</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>11.285867290007792</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>10.090914682657125</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>11.255541689604451</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>10.156722792052024</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>10.520254650620425</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>9.7890964933499998</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>11.245809838204195</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>10.345359921396598</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>11.273447945635462</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>10.031644487304201</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>11.273447945635462</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>10.031644487304201</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>11.245720200924252</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>10.228808059355378</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>11.245720200924252</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>10.228808059355378</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>11.980226384116374</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>10.580656774125172</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>10.92392923403999</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>10.201266654711349</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>11.130381217129882</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>10.757080468536255</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>11.269264460524369</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>10.070945029880461</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>11.707677065891003</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>9.5181594064111081</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>10.817690370640261</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>10.492957975601545</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>10.817690370640261</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>10.492957975601545</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>10.913934113253692</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>9.3002719232857789</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>11.207229368856114</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>9.3652872987975488</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>11.006935382818394</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>9.3121858567819444</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>10.642431086464846</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>9.4919841814773918</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>10.642431086464846</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>9.4919841814773918</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>11.110377739392714</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>10.15874249562234</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>10.595605757824847</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>9.0327627392748653</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>11.088819198668302</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>9.2500158273664574</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>11.298476864112642</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>9.3133194350883599</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>10.566788718244917</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>9.4786774502367415</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>10.566788718244917</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44">
         <v>9.4786774502367415</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>11.709927227765268</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>9.6389843358803855</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>11.709927227765268</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>9.6389843358803855</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>10.407316004191495</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>9.518137836267023</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>10.407316004191495</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>9.518137836267023</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>10.976314140105956</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>9.8092087088018225</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>8.6862890105808521</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>10.250876898689011</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>9.1173555066172067</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>7.8406426209463964</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>10.918129580013535</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>9.2786625177369615</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>11.303263755380344</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>9.4002357984581852</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>11.303263755380344</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>9.4002357984581852</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>11.303263755380344</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>9.4002357984581852</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>10.878245935272687</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>10.384626973635504</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>10.590383894374307</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57">
         <v>9.1339197262089566</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>11.297398458509322</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>9.3744809842999803</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>12.325492896228305</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59">
         <v>12.689166740123273</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>9.4361664182962048</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>11.477975728082777</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61">
         <v>10.980526617045086</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61">
         <v>9.9609709547051075</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62">
         <v>11.006185621345692</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62">
         <v>9.3328544226710495</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63">
         <v>10.572060397886759</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63">
         <v>9.4349204676986531</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64">
         <v>10.582652377492817</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64">
         <v>10.089147372123248</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65">
         <v>11.011154682691105</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65">
         <v>11.002865354637311</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="0">
+      <c r="B66">
         <v>11.011154682691105</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66">
         <v>11.002865354637311</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="0">
+      <c r="B67">
         <v>11.011154682691105</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67">
         <v>11.002865354637311</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="0">
+      <c r="B68">
         <v>11.011154682691105</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68">
         <v>11.002865354637311</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="0">
+      <c r="B69">
         <v>11.011154682691105</v>
       </c>
-      <c r="C69" s="0">
+      <c r="C69">
         <v>11.002865354637311</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="0">
+      <c r="B70">
         <v>11.011154682691105</v>
       </c>
-      <c r="C70" s="0">
+      <c r="C70">
         <v>11.002865354637311</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="0">
+      <c r="B71">
         <v>9.0198069332337116</v>
       </c>
-      <c r="C71" s="0">
+      <c r="C71">
         <v>8.6425126863905763</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="0">
+      <c r="B72">
         <v>10.820683237411691</v>
       </c>
-      <c r="C72" s="0">
+      <c r="C72">
         <v>10.523963633573054</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="0">
+      <c r="B73">
         <v>10.68820892819963</v>
       </c>
-      <c r="C73" s="0">
+      <c r="C73">
         <v>10.710325143816037</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="0">
+      <c r="B74">
         <v>10.68820892819963</v>
       </c>
-      <c r="C74" s="0">
+      <c r="C74">
         <v>10.710325143816037</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="0">
+      <c r="B75">
         <v>11.236476936259097</v>
       </c>
-      <c r="C75" s="0">
+      <c r="C75">
         <v>10.354728419480031</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="0">
+      <c r="B76">
         <v>11.236476936259097</v>
       </c>
-      <c r="C76" s="0">
+      <c r="C76">
         <v>10.354728419480031</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="0">
+      <c r="B77">
         <v>11.236476936259097</v>
       </c>
-      <c r="C77" s="0">
+      <c r="C77">
         <v>10.354728419480031</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="0">
+      <c r="B78">
         <v>12.617704465618843</v>
       </c>
-      <c r="C78" s="0">
+      <c r="C78">
         <v>9.5604980206206207</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="0">
+      <c r="B79">
         <v>11.729684114365424</v>
       </c>
-      <c r="C79" s="0">
+      <c r="C79">
         <v>9.6315521572834868</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="0">
+      <c r="B80">
         <v>10.299073113192685</v>
       </c>
-      <c r="C80" s="0">
+      <c r="C80">
         <v>8.9892290747984589</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="0">
+      <c r="B81">
         <v>11.009907968996682</v>
       </c>
-      <c r="C81" s="0">
+      <c r="C81">
         <v>9.2959206422514864</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="0">
+      <c r="B82">
         <v>11.268958753858186</v>
       </c>
-      <c r="C82" s="0">
+      <c r="C82">
         <v>10.081905394321033</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="0">
+      <c r="B83">
         <v>11.268958753858186</v>
       </c>
-      <c r="C83" s="0">
+      <c r="C83">
         <v>10.081905394321033</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="0">
+      <c r="B84">
         <v>11.268958753858186</v>
       </c>
-      <c r="C84" s="0">
+      <c r="C84">
         <v>10.081905394321033</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="0">
+      <c r="B85">
         <v>11.268958753858186</v>
       </c>
-      <c r="C85" s="0">
+      <c r="C85">
         <v>10.081905394321033</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="0">
+      <c r="B86">
         <v>11.034650747754259</v>
       </c>
-      <c r="C86" s="0">
+      <c r="C86">
         <v>9.3575957083421368</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="0">
+      <c r="B87">
         <v>11.034650747754259</v>
       </c>
-      <c r="C87" s="0">
+      <c r="C87">
         <v>9.3575957083421368</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="0">
+      <c r="B88">
         <v>11.034650747754259</v>
       </c>
-      <c r="C88" s="0">
+      <c r="C88">
         <v>9.3575957083421368</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="0">
+      <c r="B89">
         <v>11.010139308256393</v>
       </c>
-      <c r="C89" s="0">
+      <c r="C89">
         <v>9.2960404396018621</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="0">
+      <c r="B90">
         <v>11.720746726486441</v>
       </c>
-      <c r="C90" s="0">
+      <c r="C90">
         <v>10.12643956246977</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="0">
+      <c r="B91">
         <v>10.267244231056059</v>
       </c>
-      <c r="C91" s="0">
+      <c r="C91">
         <v>9.5161487017861273</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="0">
+      <c r="B92">
         <v>10.575462872115525</v>
       </c>
-      <c r="C92" s="0">
+      <c r="C92">
         <v>9.2291257258374255</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="0">
+      <c r="B93">
         <v>10.57146252645212</v>
       </c>
-      <c r="C93" s="0">
+      <c r="C93">
         <v>9.3952534561315897</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="0">
+      <c r="B94">
         <v>11.716077915680161</v>
       </c>
-      <c r="C94" s="0">
+      <c r="C94">
         <v>9.4833679348044981</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="0">
+      <c r="B95">
         <v>10.448466907480334</v>
       </c>
-      <c r="C95" s="0">
+      <c r="C95">
         <v>9.9102290810720977</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="0">
+      <c r="B96">
         <v>10.448466907480334</v>
       </c>
-      <c r="C96" s="0">
+      <c r="C96">
         <v>9.9102290810720977</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="0">
+      <c r="B97">
         <v>11.71076145601627</v>
       </c>
-      <c r="C97" s="0">
+      <c r="C97">
         <v>9.5943704457006849</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="0">
+      <c r="B98">
         <v>11.70647152932567</v>
       </c>
-      <c r="C98" s="0">
+      <c r="C98">
         <v>9.692666622195679</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="0">
+      <c r="B99">
         <v>11.313825302806388</v>
       </c>
-      <c r="C99" s="0">
+      <c r="C99">
         <v>9.2339571906385061</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="0">
+      <c r="B100">
         <v>11.313825302806388</v>
       </c>
-      <c r="C100" s="0">
+      <c r="C100">
         <v>9.2339571906385061</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="0">
+      <c r="B101">
         <v>11.313825302806388</v>
       </c>
-      <c r="C101" s="0">
+      <c r="C101">
         <v>9.2339571906385061</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="0">
+      <c r="B102">
         <v>11.313825302806388</v>
       </c>
-      <c r="C102" s="0">
+      <c r="C102">
         <v>9.2339571906385061</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="0">
+      <c r="B103">
         <v>11.253737787669991</v>
       </c>
-      <c r="C103" s="0">
+      <c r="C103">
         <v>10.216713515896101</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="0">
+      <c r="B104">
         <v>11.582861717893611</v>
       </c>
-      <c r="C104" s="0">
+      <c r="C104">
         <v>10.48182506746169</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="0">
+      <c r="B105">
         <v>9.8332673787916178</v>
       </c>
-      <c r="C105" s="0">
+      <c r="C105">
         <v>9.0248120142865584</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="0">
+      <c r="B106">
         <v>11.977757544840157</v>
       </c>
-      <c r="C106" s="0">
+      <c r="C106">
         <v>10.626224254670825</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="0">
+      <c r="B107">
         <v>10.409480874457397</v>
       </c>
-      <c r="C107" s="0">
+      <c r="C107">
         <v>10.167430425129167</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="0">
+      <c r="B108">
         <v>11.273008134240314</v>
       </c>
-      <c r="C108" s="0">
+      <c r="C108">
         <v>10.041823743831584</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="0">
+      <c r="B109">
         <v>11.113618279141079</v>
       </c>
-      <c r="C109" s="0">
+      <c r="C109">
         <v>10.803202655948519</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="0">
+      <c r="B110">
         <v>10.988734004816628</v>
       </c>
-      <c r="C110" s="0">
+      <c r="C110">
         <v>9.7250450038079332</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="0">
+      <c r="B111">
         <v>11.324472273035511</v>
       </c>
-      <c r="C111" s="0">
+      <c r="C111">
         <v>9.7856464603802884</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="0">
+      <c r="B112">
         <v>11.078607864126814</v>
       </c>
-      <c r="C112" s="0">
+      <c r="C112">
         <v>10.871659554702013</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="0">
+      <c r="B113">
         <v>10.184607521196593</v>
       </c>
-      <c r="C113" s="0">
+      <c r="C113">
         <v>10.38173215152138</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="0">
+      <c r="B114">
         <v>11.671247351855483</v>
       </c>
-      <c r="C114" s="0">
+      <c r="C114">
         <v>10.585561365389855</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="0">
+      <c r="B115">
         <v>10.902597612324504</v>
       </c>
-      <c r="C115" s="0">
+      <c r="C115">
         <v>10.283573802649761</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="0">
+      <c r="B116">
         <v>10.902597612324504</v>
       </c>
-      <c r="C116" s="0">
+      <c r="C116">
         <v>10.283573802649761</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="0">
+      <c r="B117">
         <v>11.678989621068727</v>
       </c>
-      <c r="C117" s="0">
+      <c r="C117">
         <v>10.576009560792929</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="0">
+      <c r="B118">
         <v>11.600274661017822</v>
       </c>
-      <c r="C118" s="0">
+      <c r="C118">
         <v>11.163338855468735</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="0">
+      <c r="B119">
         <v>12.012285524695239</v>
       </c>
-      <c r="C119" s="0">
+      <c r="C119">
         <v>10.978613477127675</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="0" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="0">
+      <c r="B120">
         <v>11.651448394076917</v>
       </c>
-      <c r="C120" s="0">
+      <c r="C120">
         <v>10.691895675721687</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="0" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="0">
+      <c r="B121">
         <v>11.964016257181843</v>
       </c>
-      <c r="C121" s="0">
+      <c r="C121">
         <v>10.844283799149039</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="0" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="0">
+      <c r="B122">
         <v>11.294484148542884</v>
       </c>
-      <c r="C122" s="0">
+      <c r="C122">
         <v>10.162915395697818</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="0">
+      <c r="B123">
         <v>10.973373514970554</v>
       </c>
-      <c r="C123" s="0">
+      <c r="C123">
         <v>9.4129878252195915</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="0">
+      <c r="B124">
         <v>11.75964345514474</v>
       </c>
-      <c r="C124" s="0">
+      <c r="C124">
         <v>10.540846978625098</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="0" t="s">
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="0">
+      <c r="B125">
         <v>11.948334084039836</v>
       </c>
-      <c r="C125" s="0">
+      <c r="C125">
         <v>10.958606790531343</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="0">
+      <c r="B126">
         <v>11.948334084039836</v>
       </c>
-      <c r="C126" s="0">
+      <c r="C126">
         <v>10.958606790531343</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="0">
+      <c r="B127">
         <v>11.69978532215621</v>
       </c>
-      <c r="C127" s="0">
+      <c r="C127">
         <v>10.136820440156185</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="0">
+      <c r="B128">
         <v>11.69978532215621</v>
       </c>
-      <c r="C128" s="0">
+      <c r="C128">
         <v>10.136820440156185</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="0">
+      <c r="B129">
         <v>11.489450663897538</v>
       </c>
-      <c r="C129" s="0">
+      <c r="C129">
         <v>11.255248613234995</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="0">
+      <c r="B130">
         <v>11.489450663897538</v>
       </c>
-      <c r="C130" s="0">
+      <c r="C130">
         <v>11.255248613234995</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="0">
+      <c r="B131">
         <v>11.300127297371157</v>
       </c>
-      <c r="C131" s="0">
+      <c r="C131">
         <v>9.8950879465126427</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="0">
+      <c r="B132">
         <v>11.745285257764033</v>
       </c>
-      <c r="C132" s="0">
+      <c r="C132">
         <v>10.701696867801738</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="0">
+      <c r="B133">
         <v>11.005724583219449</v>
       </c>
-      <c r="C133" s="0">
+      <c r="C133">
         <v>9.3756243241418336</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="0">
+      <c r="B134">
         <v>11.005724583219449</v>
       </c>
-      <c r="C134" s="0">
+      <c r="C134">
         <v>9.3756243241418336</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="0">
+      <c r="B135">
         <v>10.844876926460243</v>
       </c>
-      <c r="C135" s="0">
+      <c r="C135">
         <v>10.063953993165962</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="0">
+      <c r="B136">
         <v>10.999399506303694</v>
       </c>
-      <c r="C136" s="0">
+      <c r="C136">
         <v>9.4338461080410436</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="0">
+      <c r="B137">
         <v>10.695054906716303</v>
       </c>
-      <c r="C137" s="0">
+      <c r="C137">
         <v>9.6534416993795986</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="0">
+      <c r="B138">
         <v>10.695054906716303</v>
       </c>
-      <c r="C138" s="0">
+      <c r="C138">
         <v>9.6534416993795986</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="0">
+      <c r="B139">
         <v>11.302305034047976</v>
       </c>
-      <c r="C139" s="0">
+      <c r="C139">
         <v>9.331266667730743</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="0">
+      <c r="B140">
         <v>10.336216042168932</v>
       </c>
-      <c r="C140" s="0">
+      <c r="C140">
         <v>11.35027905967875</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="0">
+      <c r="B141">
         <v>10.951633431916969</v>
       </c>
-      <c r="C141" s="0">
+      <c r="C141">
         <v>10.04543643444852</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="0" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="0">
+      <c r="B142">
         <v>10.951633431916969</v>
       </c>
-      <c r="C142" s="0">
+      <c r="C142">
         <v>10.04543643444852</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="0">
+      <c r="B143">
         <v>10.951633431916969</v>
       </c>
-      <c r="C143" s="0">
+      <c r="C143">
         <v>10.04543643444852</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="0">
+      <c r="B144">
         <v>11.317083579225153</v>
       </c>
-      <c r="C144" s="0">
+      <c r="C144">
         <v>9.3291590913297355</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="0" t="s">
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="B145" s="0">
+      <c r="B145">
         <v>10.587681598270466</v>
       </c>
-      <c r="C145" s="0">
+      <c r="C145">
         <v>9.1820693186064712</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="0" t="s">
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="0">
+      <c r="B146">
         <v>10.592603000796139</v>
       </c>
-      <c r="C146" s="0">
+      <c r="C146">
         <v>9.0968177547179696</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="0" t="s">
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="0">
+      <c r="B147">
         <v>10.60619101902644</v>
       </c>
-      <c r="C147" s="0">
+      <c r="C147">
         <v>9.0385409402500798</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="0" t="s">
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
         <v>147</v>
       </c>
-      <c r="B148" s="0">
+      <c r="B148">
         <v>11.298282995559166</v>
       </c>
-      <c r="C148" s="0">
+      <c r="C148">
         <v>9.4588778258679405</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="0" t="s">
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="0">
+      <c r="B149">
         <v>11.305467193368486</v>
       </c>
-      <c r="C149" s="0">
+      <c r="C149">
         <v>9.3836135472335833</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="0" t="s">
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="0">
+      <c r="B150">
         <v>9.7637181065506979</v>
       </c>
-      <c r="C150" s="0">
+      <c r="C150">
         <v>9.2890551475832819</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="0" t="s">
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
         <v>150</v>
       </c>
-      <c r="B151" s="0">
+      <c r="B151">
         <v>11.006171668960713</v>
       </c>
-      <c r="C151" s="0">
+      <c r="C151">
         <v>9.3379528490224182</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="0" t="s">
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="0">
+      <c r="B152">
         <v>11.291264966851628</v>
       </c>
-      <c r="C152" s="0">
+      <c r="C152">
         <v>9.9875686802265271</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="0">
+      <c r="B153">
         <v>11.291264966851628</v>
       </c>
-      <c r="C153" s="0">
+      <c r="C153">
         <v>9.9875686802265271</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="0" t="s">
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="0">
+      <c r="B154">
         <v>11.316734394061912</v>
       </c>
-      <c r="C154" s="0">
+      <c r="C154">
         <v>9.4786620446591776</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="0" t="s">
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="0">
+      <c r="B155">
         <v>11.091083756893726</v>
       </c>
-      <c r="C155" s="0">
+      <c r="C155">
         <v>9.3487673383591918</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="0" t="s">
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
         <v>155</v>
       </c>
-      <c r="B156" s="0">
+      <c r="B156">
         <v>11.179440949792296</v>
       </c>
-      <c r="C156" s="0">
+      <c r="C156">
         <v>9.2265045681626532</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="0" t="s">
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="0">
+      <c r="B157">
         <v>10.02328654262328</v>
       </c>
-      <c r="C157" s="0">
+      <c r="C157">
         <v>7.1694613439101182</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="0" t="s">
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="0">
+      <c r="B158">
         <v>10.02328654262328</v>
       </c>
-      <c r="C158" s="0">
+      <c r="C158">
         <v>7.1694613439101182</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="0" t="s">
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="0">
+      <c r="B159">
         <v>9.5564545264319385</v>
       </c>
-      <c r="C159" s="0">
+      <c r="C159">
         <v>8.6691691271401474</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="0" t="s">
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="0">
+      <c r="B160">
         <v>10.372542097480208</v>
       </c>
-      <c r="C160" s="0">
+      <c r="C160">
         <v>9.3395873317677456</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="0" t="s">
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="0">
+      <c r="B161">
         <v>10.816513689818004</v>
       </c>
-      <c r="C161" s="0">
+      <c r="C161">
         <v>10.65209950810241</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="0" t="s">
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
         <v>161</v>
       </c>
-      <c r="B162" s="0">
+      <c r="B162">
         <v>10.816513689818004</v>
       </c>
-      <c r="C162" s="0">
+      <c r="C162">
         <v>10.65209950810241</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="0" t="s">
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="0">
+      <c r="B163">
         <v>11.06492728909431</v>
       </c>
-      <c r="C163" s="0">
+      <c r="C163">
         <v>9.3976915361601261</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="0" t="s">
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="0">
+      <c r="B164">
         <v>11.710571343367979</v>
       </c>
-      <c r="C164" s="0">
+      <c r="C164">
         <v>9.5238065753686101</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="0" t="s">
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="0">
+      <c r="B165">
         <v>9.7954316268678792</v>
       </c>
-      <c r="C165" s="0">
+      <c r="C165">
         <v>8.7890219716800733</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="0" t="s">
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="0">
+      <c r="B166">
         <v>9.8762359783427875</v>
       </c>
-      <c r="C166" s="0">
+      <c r="C166">
         <v>8.8683886993949912</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="0" t="s">
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="0">
+      <c r="B167">
         <v>11.006195921025871</v>
       </c>
-      <c r="C167" s="0">
+      <c r="C167">
         <v>9.3658894567425826</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="0" t="s">
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="0">
+      <c r="B168">
         <v>10.481787152269815</v>
       </c>
-      <c r="C168" s="0">
+      <c r="C168">
         <v>9.936979973953564</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="0" t="s">
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="0">
+      <c r="B169">
         <v>10.203780419311773</v>
       </c>
-      <c r="C169" s="0">
+      <c r="C169">
         <v>9.594071417746747</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="0" t="s">
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="0">
+      <c r="B170">
         <v>11.244860920246262</v>
       </c>
-      <c r="C170" s="0">
+      <c r="C170">
         <v>10.288774742282957</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="0" t="s">
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
         <v>170</v>
       </c>
-      <c r="B171" s="0">
+      <c r="B171">
         <v>11.119542602918056</v>
       </c>
-      <c r="C171" s="0">
+      <c r="C171">
         <v>10.167090529594127</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="0" t="s">
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="0">
+      <c r="B172">
         <v>10.985236438124447</v>
       </c>
-      <c r="C172" s="0">
+      <c r="C172">
         <v>9.7568889225073416</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="0" t="s">
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="0">
+      <c r="B173">
         <v>10.942881992379132</v>
       </c>
-      <c r="C173" s="0">
+      <c r="C173">
         <v>10.160872012200167</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="0" t="s">
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="0">
+      <c r="B174">
         <v>10.942881992379132</v>
       </c>
-      <c r="C174" s="0">
+      <c r="C174">
         <v>10.160872012200167</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="0" t="s">
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="B175" s="0">
+      <c r="B175">
         <v>10.61899461037056</v>
       </c>
-      <c r="C175" s="0">
+      <c r="C175">
         <v>9.5690189807970878</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="0" t="s">
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
         <v>175</v>
       </c>
-      <c r="B176" s="0">
+      <c r="B176">
         <v>10.421365629633897</v>
       </c>
-      <c r="C176" s="0">
+      <c r="C176">
         <v>10.008805822705334</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="0" t="s">
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
         <v>176</v>
       </c>
-      <c r="B177" s="0">
+      <c r="B177">
         <v>10.631162525655533</v>
       </c>
-      <c r="C177" s="0">
+      <c r="C177">
         <v>9.4364085440989438</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="0" t="s">
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="0">
+      <c r="B178">
         <v>9.5137955252171551</v>
       </c>
-      <c r="C178" s="0">
+      <c r="C178">
         <v>8.6662609418706804</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="0" t="s">
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
         <v>178</v>
       </c>
-      <c r="B179" s="0">
+      <c r="B179">
         <v>9.5137955252171551</v>
       </c>
-      <c r="C179" s="0">
+      <c r="C179">
         <v>8.6662609418706804</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="0" t="s">
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="0">
+      <c r="B180">
         <v>11.296512354879026</v>
       </c>
-      <c r="C180" s="0">
+      <c r="C180">
         <v>9.4085302435807758</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="0" t="s">
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="0">
+      <c r="B181">
         <v>10.294179869440203</v>
       </c>
-      <c r="C181" s="0">
+      <c r="C181">
         <v>9.0472126322285984</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="0" t="s">
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="0">
+      <c r="B182">
         <v>10.289729054867214</v>
       </c>
-      <c r="C182" s="0">
+      <c r="C182">
         <v>9.0871660022878995</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="0" t="s">
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
         <v>182</v>
       </c>
-      <c r="B183" s="0">
+      <c r="B183">
         <v>11.659941402549041</v>
       </c>
-      <c r="C183" s="0">
+      <c r="C183">
         <v>10.667292981903838</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="0" t="s">
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="0">
+      <c r="B184">
         <v>10.712014812555811</v>
       </c>
-      <c r="C184" s="0">
+      <c r="C184">
         <v>9.219350656420346</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="0" t="s">
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
         <v>184</v>
       </c>
-      <c r="B185" s="0">
+      <c r="B185">
         <v>10.609324582951265</v>
       </c>
-      <c r="C185" s="0">
+      <c r="C185">
         <v>9.0098794598831056</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="0" t="s">
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="0">
+      <c r="B186">
         <v>9.2099079710695158</v>
       </c>
-      <c r="C186" s="0">
+      <c r="C186">
         <v>7.5625161076870393</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="0" t="s">
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="0">
+      <c r="B187">
         <v>11.246795082686175</v>
       </c>
-      <c r="C187" s="0">
+      <c r="C187">
         <v>10.289397107088416</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="0" t="s">
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="0">
+      <c r="B188">
         <v>11.246795082686175</v>
       </c>
-      <c r="C188" s="0">
+      <c r="C188">
         <v>10.289397107088416</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="0" t="s">
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
         <v>188</v>
       </c>
-      <c r="B189" s="0">
+      <c r="B189">
         <v>11.6593830437403</v>
       </c>
-      <c r="C189" s="0">
+      <c r="C189">
         <v>10.686625534664845</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="0" t="s">
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
         <v>189</v>
       </c>
-      <c r="B190" s="0">
+      <c r="B190">
         <v>11.670712740609176</v>
       </c>
-      <c r="C190" s="0">
+      <c r="C190">
         <v>10.546449856220034</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="0" t="s">
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
         <v>190</v>
       </c>
-      <c r="B191" s="0">
+      <c r="B191">
         <v>11.380558555464727</v>
       </c>
-      <c r="C191" s="0">
+      <c r="C191">
         <v>10.352982138356792</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="0" t="s">
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="0">
+      <c r="B192">
         <v>10.951900645665335</v>
       </c>
-      <c r="C192" s="0">
+      <c r="C192">
         <v>10.032243092445105</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="0" t="s">
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="0">
+      <c r="B193">
         <v>10.636479224856446</v>
       </c>
-      <c r="C193" s="0">
+      <c r="C193">
         <v>9.4576119436952961</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="0" t="s">
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="0">
+      <c r="B194">
         <v>11.091064235554564</v>
       </c>
-      <c r="C194" s="0">
+      <c r="C194">
         <v>9.4609230586644095</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="0" t="s">
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="0">
+      <c r="B195">
         <v>11.091064235554564</v>
       </c>
-      <c r="C195" s="0">
+      <c r="C195">
         <v>9.4609230586644095</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="0" t="s">
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
         <v>195</v>
       </c>
-      <c r="B196" s="0">
+      <c r="B196">
         <v>10.968411971168669</v>
       </c>
-      <c r="C196" s="0">
+      <c r="C196">
         <v>9.9539602753071446</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="0" t="s">
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
         <v>196</v>
       </c>
-      <c r="B197" s="0">
+      <c r="B197">
         <v>11.148340016707676</v>
       </c>
-      <c r="C197" s="0">
+      <c r="C197">
         <v>9.7869494717679277</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="0" t="s">
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="0">
+      <c r="B198">
         <v>9.7223186468107592</v>
       </c>
-      <c r="C198" s="0">
+      <c r="C198">
         <v>9.2253699547042345</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="0" t="s">
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
         <v>198</v>
       </c>
-      <c r="B199" s="0">
+      <c r="B199">
         <v>8.5094009875969299</v>
       </c>
-      <c r="C199" s="0">
+      <c r="C199">
         <v>7.2696966650569372</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
         <v>199</v>
       </c>
-      <c r="B200" s="0">
+      <c r="B200">
         <v>11.708062832970594</v>
       </c>
-      <c r="C200" s="0">
+      <c r="C200">
         <v>9.4939435689845251</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="0" t="s">
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
         <v>200</v>
       </c>
-      <c r="B201" s="0">
+      <c r="B201">
         <v>11.708062832970594</v>
       </c>
-      <c r="C201" s="0">
+      <c r="C201">
         <v>9.4939435689845251</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="0" t="s">
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
         <v>201</v>
       </c>
-      <c r="B202" s="0">
+      <c r="B202">
         <v>11.708062832970594</v>
       </c>
-      <c r="C202" s="0">
+      <c r="C202">
         <v>9.4939435689845251</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="0" t="s">
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
         <v>202</v>
       </c>
-      <c r="B203" s="0">
+      <c r="B203">
         <v>10.989630779609648</v>
       </c>
-      <c r="C203" s="0">
+      <c r="C203">
         <v>9.4786091078999899</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="0" t="s">
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
         <v>203</v>
       </c>
-      <c r="B204" s="0">
+      <c r="B204">
         <v>10.989630779609648</v>
       </c>
-      <c r="C204" s="0">
+      <c r="C204">
         <v>9.4786091078999899</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="0" t="s">
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
         <v>204</v>
       </c>
-      <c r="B205" s="0">
+      <c r="B205">
         <v>10.989630779609648</v>
       </c>
-      <c r="C205" s="0">
+      <c r="C205">
         <v>9.4786091078999899</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="0" t="s">
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
         <v>205</v>
       </c>
-      <c r="B206" s="0">
+      <c r="B206">
         <v>11.16232722175285</v>
       </c>
-      <c r="C206" s="0">
+      <c r="C206">
         <v>6.3763849847250302</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="0" t="s">
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
         <v>206</v>
       </c>
-      <c r="B207" s="0">
+      <c r="B207">
         <v>9.787498473324785</v>
       </c>
-      <c r="C207" s="0">
+      <c r="C207">
         <v>9.0609122497701247</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="0" t="s">
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
         <v>207</v>
       </c>
-      <c r="B208" s="0">
+      <c r="B208">
         <v>9.787498473324785</v>
       </c>
-      <c r="C208" s="0">
+      <c r="C208">
         <v>9.0609122497701247</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="0" t="s">
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
         <v>208</v>
       </c>
-      <c r="B209" s="0">
+      <c r="B209">
         <v>11.0055997311313</v>
       </c>
-      <c r="C209" s="0">
+      <c r="C209">
         <v>9.3507794383999983</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="0" t="s">
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
         <v>209</v>
       </c>
-      <c r="B210" s="0">
+      <c r="B210">
         <v>11.034086984394039</v>
       </c>
-      <c r="C210" s="0">
+      <c r="C210">
         <v>9.2682654258787345</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="0" t="s">
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="0">
+      <c r="B211">
         <v>12.056517677107212</v>
       </c>
-      <c r="C211" s="0">
+      <c r="C211">
         <v>10.172746713918395</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="0" t="s">
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="0">
+      <c r="B212">
         <v>12.382814523372724</v>
       </c>
-      <c r="C212" s="0">
+      <c r="C212">
         <v>11.306429931630115</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="0" t="s">
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="0">
+      <c r="B213">
         <v>12.382814523372724</v>
       </c>
-      <c r="C213" s="0">
+      <c r="C213">
         <v>11.306429931630115</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="0" t="s">
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
         <v>213</v>
       </c>
-      <c r="B214" s="0">
+      <c r="B214">
         <v>10.945633346982786</v>
       </c>
-      <c r="C214" s="0">
+      <c r="C214">
         <v>10.103268701817045</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="0" t="s">
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
         <v>214</v>
       </c>
-      <c r="B215" s="0">
+      <c r="B215">
         <v>10.542463664498742</v>
       </c>
-      <c r="C215" s="0">
+      <c r="C215">
         <v>9.6445594434721471</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="0" t="s">
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
         <v>215</v>
       </c>
-      <c r="B216" s="0">
+      <c r="B216">
         <v>12.383650898797336</v>
       </c>
-      <c r="C216" s="0">
+      <c r="C216">
         <v>10.990075445899006</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="0" t="s">
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
         <v>216</v>
       </c>
-      <c r="B217" s="0">
+      <c r="B217">
         <v>11.993745549763521</v>
       </c>
-      <c r="C217" s="0">
+      <c r="C217">
         <v>10.586831534502569</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="0" t="s">
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
         <v>217</v>
       </c>
-      <c r="B218" s="0">
+      <c r="B218">
         <v>11.973088829685601</v>
       </c>
-      <c r="C218" s="0">
+      <c r="C218">
         <v>10.642534383162895</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="0" t="s">
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
         <v>218</v>
       </c>
-      <c r="B219" s="0">
+      <c r="B219">
         <v>11.692092525765066</v>
       </c>
-      <c r="C219" s="0">
+      <c r="C219">
         <v>10.254519563206781</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="0" t="s">
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="0">
+      <c r="B220">
         <v>10.90451068672227</v>
       </c>
-      <c r="C220" s="0">
+      <c r="C220">
         <v>10.260329973065764</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="0" t="s">
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
         <v>220</v>
       </c>
-      <c r="B221" s="0">
+      <c r="B221">
         <v>11.694133476008231</v>
       </c>
-      <c r="C221" s="0">
+      <c r="C221">
         <v>10.196094536251001</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="0" t="s">
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
         <v>221</v>
       </c>
-      <c r="B222" s="0">
+      <c r="B222">
         <v>11.431933706715213</v>
       </c>
-      <c r="C222" s="0">
+      <c r="C222">
         <v>11.346766561816557</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="0" t="s">
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="0">
+      <c r="B223">
         <v>10.892881817263191</v>
       </c>
-      <c r="C223" s="0">
+      <c r="C223">
         <v>11.115879908885073</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="0" t="s">
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
         <v>223</v>
       </c>
-      <c r="B224" s="0">
+      <c r="B224">
         <v>10.892881817263191</v>
       </c>
-      <c r="C224" s="0">
+      <c r="C224">
         <v>11.115879908885073</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="0" t="s">
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="0">
+      <c r="B225">
         <v>11.554847891044748</v>
       </c>
-      <c r="C225" s="0">
+      <c r="C225">
         <v>11.156441925176322</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="0" t="s">
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
         <v>225</v>
       </c>
-      <c r="B226" s="0">
+      <c r="B226">
         <v>11.852744900847709</v>
       </c>
-      <c r="C226" s="0">
+      <c r="C226">
         <v>10.249904500495481</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="0" t="s">
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="0">
+      <c r="B227">
         <v>11.944880943502623</v>
       </c>
-      <c r="C227" s="0">
+      <c r="C227">
         <v>10.937537250374744</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="0" t="s">
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
         <v>227</v>
       </c>
-      <c r="B228" s="0">
+      <c r="B228">
         <v>12.369887678585588</v>
       </c>
-      <c r="C228" s="0">
+      <c r="C228">
         <v>11.200617687581994</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="0" t="s">
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
         <v>228</v>
       </c>
-      <c r="B229" s="0">
+      <c r="B229">
         <v>12.314292827809421</v>
       </c>
-      <c r="C229" s="0">
+      <c r="C229">
         <v>11.727464259213528</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="0" t="s">
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="0">
+      <c r="B230">
         <v>11.010646322345055</v>
       </c>
-      <c r="C230" s="0">
+      <c r="C230">
         <v>9.2269552921811293</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="0" t="s">
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="0">
+      <c r="B231">
         <v>9.5537239534259832</v>
       </c>
-      <c r="C231" s="0">
+      <c r="C231">
         <v>8.7223140256036906</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="0" t="s">
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
         <v>231</v>
       </c>
-      <c r="B232" s="0">
+      <c r="B232">
         <v>9.5537239534259832</v>
       </c>
-      <c r="C232" s="0">
+      <c r="C232">
         <v>8.7223140256036906</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="0" t="s">
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
         <v>232</v>
       </c>
-      <c r="B233" s="0">
+      <c r="B233">
         <v>11.004148513202983</v>
       </c>
-      <c r="C233" s="0">
+      <c r="C233">
         <v>9.3906532325771472</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="0" t="s">
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
         <v>233</v>
       </c>
-      <c r="B234" s="0">
+      <c r="B234">
         <v>10.943499825771989</v>
       </c>
-      <c r="C234" s="0">
+      <c r="C234">
         <v>9.3181287241210242</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="0" t="s">
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
         <v>234</v>
       </c>
-      <c r="B235" s="0">
+      <c r="B235">
         <v>10.943499825771989</v>
       </c>
-      <c r="C235" s="0">
+      <c r="C235">
         <v>9.3181287241210242</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="0" t="s">
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="0">
+      <c r="B236">
         <v>11.990779748024433</v>
       </c>
-      <c r="C236" s="0">
+      <c r="C236">
         <v>9.6004516257061105</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="0" t="s">
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
         <v>236</v>
       </c>
-      <c r="B237" s="0">
+      <c r="B237">
         <v>10.577950581849393</v>
       </c>
-      <c r="C237" s="0">
+      <c r="C237">
         <v>9.505199368980362</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="0" t="s">
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
         <v>237</v>
       </c>
-      <c r="B238" s="0">
+      <c r="B238">
         <v>9.3712825980314989</v>
       </c>
-      <c r="C238" s="0">
+      <c r="C238">
         <v>9.3407711820953772</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="0" t="s">
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
         <v>238</v>
       </c>
-      <c r="B239" s="0">
+      <c r="B239">
         <v>10.587100923689826</v>
       </c>
-      <c r="C239" s="0">
+      <c r="C239">
         <v>9.2391989823066467</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="0" t="s">
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
         <v>239</v>
       </c>
-      <c r="B240" s="0">
+      <c r="B240">
         <v>10.852010379998529</v>
       </c>
-      <c r="C240" s="0">
+      <c r="C240">
         <v>10.434946939112713</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="0" t="s">
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
         <v>240</v>
       </c>
-      <c r="B241" s="0">
+      <c r="B241">
         <v>10.852010379998529</v>
       </c>
-      <c r="C241" s="0">
+      <c r="C241">
         <v>10.434946939112713</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="0" t="s">
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
         <v>241</v>
       </c>
-      <c r="B242" s="0">
+      <c r="B242">
         <v>9.8324668535577846</v>
       </c>
-      <c r="C242" s="0">
+      <c r="C242">
         <v>8.7209019479693026</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="0" t="s">
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
         <v>242</v>
       </c>
-      <c r="B243" s="0">
+      <c r="B243">
         <v>9.6554728435235546</v>
       </c>
-      <c r="C243" s="0">
+      <c r="C243">
         <v>9.5025382127673161</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="0" t="s">
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
         <v>243</v>
       </c>
-      <c r="B244" s="0">
+      <c r="B244">
         <v>9.6554728435235546</v>
       </c>
-      <c r="C244" s="0">
+      <c r="C244">
         <v>9.5025382127673161</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="0" t="s">
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
         <v>244</v>
       </c>
-      <c r="B245" s="0">
+      <c r="B245">
         <v>10.445464282924515</v>
       </c>
-      <c r="C245" s="0">
+      <c r="C245">
         <v>10.049107559038593</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="0" t="s">
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
         <v>245</v>
       </c>
-      <c r="B246" s="0">
+      <c r="B246">
         <v>10.590950642774523</v>
       </c>
-      <c r="C246" s="0">
+      <c r="C246">
         <v>9.1772717590688799</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="0" t="s">
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
         <v>246</v>
       </c>
-      <c r="B247" s="0">
+      <c r="B247">
         <v>11.015362067177307</v>
       </c>
-      <c r="C247" s="0">
+      <c r="C247">
         <v>9.2633535439459607</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="0" t="s">
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
         <v>247</v>
       </c>
-      <c r="B248" s="0">
+      <c r="B248">
         <v>10.898431458745996</v>
       </c>
-      <c r="C248" s="0">
+      <c r="C248">
         <v>10.286736804375177</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="0" t="s">
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
         <v>248</v>
       </c>
-      <c r="B249" s="0">
+      <c r="B249">
         <v>10.898431458745996</v>
       </c>
-      <c r="C249" s="0">
+      <c r="C249">
         <v>10.286736804375177</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="0" t="s">
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
         <v>249</v>
       </c>
-      <c r="B250" s="0">
+      <c r="B250">
         <v>11.623649675035125</v>
       </c>
-      <c r="C250" s="0">
+      <c r="C250">
         <v>9.3835879642540299</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="0" t="s">
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="0">
+      <c r="B251">
         <v>12.055303101362908</v>
       </c>
-      <c r="C251" s="0">
+      <c r="C251">
         <v>9.7202325191653216</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="0" t="s">
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
         <v>251</v>
       </c>
-      <c r="B252" s="0">
+      <c r="B252">
         <v>10.565164489406811</v>
       </c>
-      <c r="C252" s="0">
+      <c r="C252">
         <v>9.4610325358907303</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="0" t="s">
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
         <v>252</v>
       </c>
-      <c r="B253" s="0">
+      <c r="B253">
         <v>11.324550243411002</v>
       </c>
-      <c r="C253" s="0">
+      <c r="C253">
         <v>9.0231812829130273</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="0" t="s">
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
         <v>253</v>
       </c>
-      <c r="B254" s="0">
+      <c r="B254">
         <v>11.324550243411002</v>
       </c>
-      <c r="C254" s="0">
+      <c r="C254">
         <v>9.0231812829130273</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="0" t="s">
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
         <v>254</v>
       </c>
-      <c r="B255" s="0">
+      <c r="B255">
         <v>10.592990247924661</v>
       </c>
-      <c r="C255" s="0">
+      <c r="C255">
         <v>9.1613376374419193</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="0" t="s">
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
         <v>255</v>
       </c>
-      <c r="B256" s="0">
+      <c r="B256">
         <v>10.600856876876502</v>
       </c>
-      <c r="C256" s="0">
+      <c r="C256">
         <v>8.9464768364710849</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="0" t="s">
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
         <v>256</v>
       </c>
-      <c r="B257" s="0">
+      <c r="B257">
         <v>10.612280944181334</v>
       </c>
-      <c r="C257" s="0">
+      <c r="C257">
         <v>9.3930760038338939</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="0" t="s">
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
         <v>257</v>
       </c>
-      <c r="B258" s="0">
+      <c r="B258">
         <v>10.612280944181334</v>
       </c>
-      <c r="C258" s="0">
+      <c r="C258">
         <v>9.3930760038338939</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="0" t="s">
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
         <v>258</v>
       </c>
-      <c r="B259" s="0">
+      <c r="B259">
         <v>10.64483300632104</v>
       </c>
-      <c r="C259" s="0">
+      <c r="C259">
         <v>9.4262555462368169</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="0" t="s">
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
         <v>259</v>
       </c>
-      <c r="B260" s="0">
+      <c r="B260">
         <v>10.64483300632104</v>
       </c>
-      <c r="C260" s="0">
+      <c r="C260">
         <v>9.4262555462368169</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="0" t="s">
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
         <v>260</v>
       </c>
-      <c r="B261" s="0">
+      <c r="B261">
         <v>11.968539712457668</v>
       </c>
-      <c r="C261" s="0">
+      <c r="C261">
         <v>10.703441274927048</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="0" t="s">
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
         <v>261</v>
       </c>
-      <c r="B262" s="0">
+      <c r="B262">
         <v>10.958469097812991</v>
       </c>
-      <c r="C262" s="0">
+      <c r="C262">
         <v>12.625132398074037</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="0" t="s">
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
         <v>262</v>
       </c>
-      <c r="B263" s="0">
+      <c r="B263">
         <v>10.958469097812991</v>
       </c>
-      <c r="C263" s="0">
+      <c r="C263">
         <v>12.625132398074037</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="0" t="s">
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
         <v>263</v>
       </c>
-      <c r="B264" s="0">
+      <c r="B264">
         <v>11.169033686004836</v>
       </c>
-      <c r="C264" s="0">
+      <c r="C264">
         <v>9.2543928903772148</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="0" t="s">
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
         <v>264</v>
       </c>
-      <c r="B265" s="0">
+      <c r="B265">
         <v>10.306126631625045</v>
       </c>
-      <c r="C265" s="0">
+      <c r="C265">
         <v>8.8091068258154923</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="0" t="s">
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
         <v>265</v>
       </c>
-      <c r="B266" s="0">
+      <c r="B266">
         <v>11.734252982662014</v>
       </c>
-      <c r="C266" s="0">
+      <c r="C266">
         <v>9.5357843593480691</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="0" t="s">
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
         <v>266</v>
       </c>
-      <c r="B267" s="0">
+      <c r="B267">
         <v>11.734252982662014</v>
       </c>
-      <c r="C267" s="0">
+      <c r="C267">
         <v>9.5357843593480691</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="0" t="s">
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
         <v>267</v>
       </c>
-      <c r="B268" s="0">
+      <c r="B268">
         <v>11.332540557641257</v>
       </c>
-      <c r="C268" s="0">
+      <c r="C268">
         <v>9.4323237617967166</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="0" t="s">
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
         <v>268</v>
       </c>
-      <c r="B269" s="0">
+      <c r="B269">
         <v>11.296636905919712</v>
       </c>
-      <c r="C269" s="0">
+      <c r="C269">
         <v>9.5574827023302333</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="0" t="s">
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
         <v>269</v>
       </c>
-      <c r="B270" s="0">
+      <c r="B270">
         <v>11.688558631678461</v>
       </c>
-      <c r="C270" s="0">
+      <c r="C270">
         <v>10.309735583920162</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="0" t="s">
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
         <v>270</v>
       </c>
-      <c r="B271" s="0">
+      <c r="B271">
         <v>11.90498037816109</v>
       </c>
-      <c r="C271" s="0">
+      <c r="C271">
         <v>9.4506920622206163</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="0" t="s">
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
         <v>271</v>
       </c>
-      <c r="B272" s="0">
+      <c r="B272">
         <v>11.90498037816109</v>
       </c>
-      <c r="C272" s="0">
+      <c r="C272">
         <v>9.4506920622206163</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="0" t="s">
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
         <v>272</v>
       </c>
-      <c r="B273" s="0">
+      <c r="B273">
         <v>11.757281947290094</v>
       </c>
-      <c r="C273" s="0">
+      <c r="C273">
         <v>10.186488279006531</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="0" t="s">
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
         <v>273</v>
       </c>
-      <c r="B274" s="0">
+      <c r="B274">
         <v>10.920286148311908</v>
       </c>
-      <c r="C274" s="0">
+      <c r="C274">
         <v>10.27308141907435</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="0" t="s">
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
         <v>274</v>
       </c>
-      <c r="B275" s="0">
+      <c r="B275">
         <v>10.920286148311908</v>
       </c>
-      <c r="C275" s="0">
+      <c r="C275">
         <v>10.27308141907435</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="0" t="s">
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
         <v>275</v>
       </c>
-      <c r="B276" s="0">
+      <c r="B276">
         <v>10.096201929583639</v>
       </c>
-      <c r="C276" s="0">
+      <c r="C276">
         <v>8.9573343870307394</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="0" t="s">
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
         <v>276</v>
       </c>
-      <c r="B277" s="0">
+      <c r="B277">
         <v>11.002741342501533</v>
       </c>
-      <c r="C277" s="0">
+      <c r="C277">
         <v>9.3579707794851466</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="0" t="s">
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
         <v>277</v>
       </c>
-      <c r="B278" s="0">
+      <c r="B278">
         <v>10.625907177093634</v>
       </c>
-      <c r="C278" s="0">
+      <c r="C278">
         <v>9.9568168806269011</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="0" t="s">
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
         <v>278</v>
       </c>
-      <c r="B279" s="0">
+      <c r="B279">
         <v>11.325214019193663</v>
       </c>
-      <c r="C279" s="0">
+      <c r="C279">
         <v>9.2908549328880312</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="0" t="s">
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
         <v>279</v>
       </c>
-      <c r="B280" s="0">
+      <c r="B280">
         <v>9.7207397848611929</v>
       </c>
-      <c r="C280" s="0">
+      <c r="C280">
         <v>8.7941232709862831</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="0" t="s">
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
         <v>280</v>
       </c>
-      <c r="B281" s="0">
+      <c r="B281">
         <v>11.686875116671057</v>
       </c>
-      <c r="C281" s="0">
+      <c r="C281">
         <v>10.339740381587037</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="0" t="s">
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
         <v>281</v>
       </c>
-      <c r="B282" s="0">
+      <c r="B282">
         <v>11.712643358587464</v>
       </c>
-      <c r="C282" s="0">
+      <c r="C282">
         <v>9.8195394539660921</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="0" t="s">
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
         <v>282</v>
       </c>
-      <c r="B283" s="0">
+      <c r="B283">
         <v>10.708239540972478</v>
       </c>
-      <c r="C283" s="0">
+      <c r="C283">
         <v>9.2555567598874138</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="0" t="s">
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
         <v>283</v>
       </c>
-      <c r="B284" s="0">
+      <c r="B284">
         <v>11.982791065109005</v>
       </c>
-      <c r="C284" s="0">
+      <c r="C284">
         <v>10.46585677411295</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="0" t="s">
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
         <v>284</v>
       </c>
-      <c r="B285" s="0">
+      <c r="B285">
         <v>12.424733883801395</v>
       </c>
-      <c r="C285" s="0">
+      <c r="C285">
         <v>11.034857398552594</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="0" t="s">
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
         <v>285</v>
       </c>
-      <c r="B286" s="0">
+      <c r="B286">
         <v>11.401240370310063</v>
       </c>
-      <c r="C286" s="0">
+      <c r="C286">
         <v>10.00900764322312</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="0" t="s">
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
         <v>286</v>
       </c>
-      <c r="B287" s="0">
+      <c r="B287">
         <v>10.126763265040644</v>
       </c>
-      <c r="C287" s="0">
+      <c r="C287">
         <v>8.4395834852140972</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="0" t="s">
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
         <v>287</v>
       </c>
-      <c r="B288" s="0">
+      <c r="B288">
         <v>10.126763265040644</v>
       </c>
-      <c r="C288" s="0">
+      <c r="C288">
         <v>8.4395834852140972</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="0" t="s">
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
         <v>288</v>
       </c>
-      <c r="B289" s="0">
+      <c r="B289">
         <v>9.5708718861611359</v>
       </c>
-      <c r="C289" s="0">
+      <c r="C289">
         <v>8.51866737403226</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="0" t="s">
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
         <v>289</v>
       </c>
-      <c r="B290" s="0">
+      <c r="B290">
         <v>10.336846011069373</v>
       </c>
-      <c r="C290" s="0">
+      <c r="C290">
         <v>9.2502487447239776</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="0" t="s">
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
         <v>290</v>
       </c>
-      <c r="B291" s="0">
+      <c r="B291">
         <v>10.336846011069373</v>
       </c>
-      <c r="C291" s="0">
+      <c r="C291">
         <v>9.2502487447239776</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="0" t="s">
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
         <v>291</v>
       </c>
-      <c r="B292" s="0">
+      <c r="B292">
         <v>11.982546523316058</v>
       </c>
-      <c r="C292" s="0">
+      <c r="C292">
         <v>10.478334355731716</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="0" t="s">
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
         <v>292</v>
       </c>
-      <c r="B293" s="0">
+      <c r="B293">
         <v>11.982546523316058</v>
       </c>
-      <c r="C293" s="0">
+      <c r="C293">
         <v>10.478334355731716</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="0" t="s">
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
         <v>293</v>
       </c>
-      <c r="B294" s="0">
+      <c r="B294">
         <v>11.633179288386158</v>
       </c>
-      <c r="C294" s="0">
+      <c r="C294">
         <v>11.19073716927039</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="0" t="s">
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
         <v>294</v>
       </c>
-      <c r="B295" s="0">
+      <c r="B295">
         <v>11.715511220201872</v>
       </c>
-      <c r="C295" s="0">
+      <c r="C295">
         <v>9.7006456039599147</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="0" t="s">
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
         <v>295</v>
       </c>
-      <c r="B296" s="0">
+      <c r="B296">
         <v>11.715511220201872</v>
       </c>
-      <c r="C296" s="0">
+      <c r="C296">
         <v>9.7006456039599147</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="0" t="s">
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
         <v>296</v>
       </c>
-      <c r="B297" s="0">
+      <c r="B297">
         <v>11.715511220201872</v>
       </c>
-      <c r="C297" s="0">
+      <c r="C297">
         <v>9.7006456039599147</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="0" t="s">
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
         <v>297</v>
       </c>
-      <c r="B298" s="0">
+      <c r="B298">
         <v>12.002489819897079</v>
       </c>
-      <c r="C298" s="0">
+      <c r="C298">
         <v>9.6668760773603886</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="0" t="s">
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
         <v>298</v>
       </c>
-      <c r="B299" s="0">
+      <c r="B299">
         <v>10.570321347124258</v>
       </c>
-      <c r="C299" s="0">
+      <c r="C299">
         <v>9.7055353631115882</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="0" t="s">
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
         <v>299</v>
       </c>
-      <c r="B300" s="0">
+      <c r="B300">
         <v>10.553723043360669</v>
       </c>
-      <c r="C300" s="0">
+      <c r="C300">
         <v>9.7198385862111571</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="0" t="s">
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
         <v>300</v>
       </c>
-      <c r="B301" s="0">
+      <c r="B301">
         <v>12.001097962256688</v>
       </c>
-      <c r="C301" s="0">
+      <c r="C301">
         <v>9.5529304125880365</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="0" t="s">
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
         <v>301</v>
       </c>
-      <c r="B302" s="0">
+      <c r="B302">
         <v>12.814238724462852</v>
       </c>
-      <c r="C302" s="0">
+      <c r="C302">
         <v>9.9941521814855836</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="0" t="s">
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
         <v>302</v>
       </c>
-      <c r="B303" s="0">
+      <c r="B303">
         <v>12.814238724462852</v>
       </c>
-      <c r="C303" s="0">
+      <c r="C303">
         <v>9.9941521814855836</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="0" t="s">
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
         <v>303</v>
       </c>
-      <c r="B304" s="0">
+      <c r="B304">
         <v>11.362181950888521</v>
       </c>
-      <c r="C304" s="0">
+      <c r="C304">
         <v>9.5075425613411504</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="0" t="s">
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
         <v>304</v>
       </c>
-      <c r="B305" s="0">
+      <c r="B305">
         <v>11.361559533324385</v>
       </c>
-      <c r="C305" s="0">
+      <c r="C305">
         <v>9.4577932491801899</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="0" t="s">
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
         <v>305</v>
       </c>
-      <c r="B306" s="0">
+      <c r="B306">
         <v>11.047889003863625</v>
       </c>
-      <c r="C306" s="0">
+      <c r="C306">
         <v>9.4241462151952966</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="0" t="s">
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
         <v>306</v>
       </c>
-      <c r="B307" s="0">
+      <c r="B307">
         <v>11.047889003863625</v>
       </c>
-      <c r="C307" s="0">
+      <c r="C307">
         <v>9.4241462151952966</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="0" t="s">
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
         <v>307</v>
       </c>
-      <c r="B308" s="0">
+      <c r="B308">
         <v>11.047889003863625</v>
       </c>
-      <c r="C308" s="0">
+      <c r="C308">
         <v>9.4241462151952966</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="0" t="s">
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
         <v>308</v>
       </c>
-      <c r="B309" s="0">
+      <c r="B309">
         <v>10.98167970397706</v>
       </c>
-      <c r="C309" s="0">
+      <c r="C309">
         <v>9.856544115277023</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="0" t="s">
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
         <v>309</v>
       </c>
-      <c r="B310" s="0">
+      <c r="B310">
         <v>11.008092925333065</v>
       </c>
-      <c r="C310" s="0">
+      <c r="C310">
         <v>9.3139129242011265</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="0" t="s">
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
         <v>310</v>
       </c>
-      <c r="B311" s="0">
+      <c r="B311">
         <v>9.8681285294346335</v>
       </c>
-      <c r="C311" s="0">
+      <c r="C311">
         <v>8.8357248902944683</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="0" t="s">
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
         <v>311</v>
       </c>
-      <c r="B312" s="0">
+      <c r="B312">
         <v>11.02474705882754</v>
       </c>
-      <c r="C312" s="0">
+      <c r="C312">
         <v>9.4712654068824023</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="0" t="s">
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
         <v>312</v>
       </c>
-      <c r="B313" s="0">
+      <c r="B313">
         <v>10.189627340679429</v>
       </c>
-      <c r="C313" s="0">
+      <c r="C313">
         <v>9.6743357386249791</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="0" t="s">
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
         <v>313</v>
       </c>
-      <c r="B314" s="0">
+      <c r="B314">
         <v>10.138746695968615</v>
       </c>
-      <c r="C314" s="0">
+      <c r="C314">
         <v>9.7917692516216537</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="0" t="s">
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
         <v>314</v>
       </c>
-      <c r="B315" s="0">
+      <c r="B315">
         <v>8.6859775839196516</v>
       </c>
-      <c r="C315" s="0">
+      <c r="C315">
         <v>7.7910027631589713</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="0" t="s">
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
         <v>315</v>
       </c>
-      <c r="B316" s="0">
+      <c r="B316">
         <v>8.6859775839196516</v>
       </c>
-      <c r="C316" s="0">
+      <c r="C316">
         <v>7.7910027631589713</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="0" t="s">
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
         <v>316</v>
       </c>
-      <c r="B317" s="0">
+      <c r="B317">
         <v>10.58034055827555</v>
       </c>
-      <c r="C317" s="0">
+      <c r="C317">
         <v>9.232437831517915</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="0" t="s">
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
         <v>317</v>
       </c>
-      <c r="B318" s="0">
+      <c r="B318">
         <v>11.587252326718792</v>
       </c>
-      <c r="C318" s="0">
+      <c r="C318">
         <v>11.077329265702099</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="0" t="s">
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
         <v>318</v>
       </c>
-      <c r="B319" s="0">
+      <c r="B319">
         <v>11.00859943648766</v>
       </c>
-      <c r="C319" s="0">
+      <c r="C319">
         <v>9.2701094360428904</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="0" t="s">
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
         <v>319</v>
       </c>
-      <c r="B320" s="0">
+      <c r="B320">
         <v>11.013806864951123</v>
       </c>
-      <c r="C320" s="0">
+      <c r="C320">
         <v>9.2104569271492132</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="0" t="s">
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
         <v>320</v>
       </c>
-      <c r="B321" s="0">
+      <c r="B321">
         <v>10.548014218363368</v>
       </c>
-      <c r="C321" s="0">
+      <c r="C321">
         <v>9.561645416234434</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="0" t="s">
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
         <v>321</v>
       </c>
-      <c r="B322" s="0">
+      <c r="B322">
         <v>11.274516546866144</v>
       </c>
-      <c r="C322" s="0">
+      <c r="C322">
         <v>9.9297271883001628</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="0" t="s">
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
         <v>322</v>
       </c>
-      <c r="B323" s="0">
+      <c r="B323">
         <v>11.274516546866144</v>
       </c>
-      <c r="C323" s="0">
+      <c r="C323">
         <v>9.9297271883001628</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="0" t="s">
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
         <v>323</v>
       </c>
-      <c r="B324" s="0">
+      <c r="B324">
         <v>9.0698828861815528</v>
       </c>
-      <c r="C324" s="0">
+      <c r="C324">
         <v>8.2241202199312387</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="0" t="s">
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
         <v>324</v>
       </c>
-      <c r="B325" s="0">
+      <c r="B325">
         <v>11.34989330410486</v>
       </c>
-      <c r="C325" s="0">
+      <c r="C325">
         <v>9.3289699907455503</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="0" t="s">
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
         <v>325</v>
       </c>
-      <c r="B326" s="0">
+      <c r="B326">
         <v>12.332144242972124</v>
       </c>
-      <c r="C326" s="0">
+      <c r="C326">
         <v>12.057061821793345</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="0" t="s">
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
         <v>326</v>
       </c>
-      <c r="B327" s="0">
+      <c r="B327">
         <v>11.713092340389897</v>
       </c>
-      <c r="C327" s="0">
+      <c r="C327">
         <v>9.5259337249879774</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="0" t="s">
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
         <v>327</v>
       </c>
-      <c r="B328" s="0">
+      <c r="B328">
         <v>10.976916384854407</v>
       </c>
-      <c r="C328" s="0">
+      <c r="C328">
         <v>9.8637071453787186</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="0" t="s">
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
         <v>328</v>
       </c>
-      <c r="B329" s="0">
+      <c r="B329">
         <v>10.25349938055826</v>
       </c>
-      <c r="C329" s="0">
+      <c r="C329">
         <v>9.4632131639360271</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="0" t="s">
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
         <v>329</v>
       </c>
-      <c r="B330" s="0">
+      <c r="B330">
         <v>10.421317512818543</v>
       </c>
-      <c r="C330" s="0">
+      <c r="C330">
         <v>6.3157156479959093</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="0" t="s">
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
         <v>330</v>
       </c>
-      <c r="B331" s="0">
+      <c r="B331">
         <v>11.680493904814497</v>
       </c>
-      <c r="C331" s="0">
+      <c r="C331">
         <v>10.431057980083517</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="0" t="s">
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
         <v>331</v>
       </c>
-      <c r="B332" s="0">
+      <c r="B332">
         <v>10.967356107409049</v>
       </c>
-      <c r="C332" s="0">
+      <c r="C332">
         <v>10.000392073397069</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="0" t="s">
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
         <v>332</v>
       </c>
-      <c r="B333" s="0">
+      <c r="B333">
         <v>12.020902259451629</v>
       </c>
-      <c r="C333" s="0">
+      <c r="C333">
         <v>9.072716570960992</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="0" t="s">
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
         <v>333</v>
       </c>
-      <c r="B334" s="0">
+      <c r="B334">
         <v>10.487237373287659</v>
       </c>
-      <c r="C334" s="0">
+      <c r="C334">
         <v>10.032724794300238</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="0" t="s">
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
         <v>334</v>
       </c>
-      <c r="B335" s="0">
+      <c r="B335">
         <v>10.269940573415896</v>
       </c>
-      <c r="C335" s="0">
+      <c r="C335">
         <v>9.0549212747129708</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="0" t="s">
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
         <v>335</v>
       </c>
-      <c r="B336" s="0">
+      <c r="B336">
         <v>10.269940573415896</v>
       </c>
-      <c r="C336" s="0">
+      <c r="C336">
         <v>9.0549212747129708</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="0" t="s">
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
         <v>336</v>
       </c>
-      <c r="B337" s="0">
+      <c r="B337">
         <v>11.71660185015365</v>
       </c>
-      <c r="C337" s="0">
+      <c r="C337">
         <v>10.570416738380965</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="0" t="s">
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
         <v>337</v>
       </c>
-      <c r="B338" s="0">
+      <c r="B338">
         <v>11.722582500450869</v>
       </c>
-      <c r="C338" s="0">
+      <c r="C338">
         <v>10.436265793971542</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="0" t="s">
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
         <v>338</v>
       </c>
-      <c r="B339" s="0">
+      <c r="B339">
         <v>11.722582500450869</v>
       </c>
-      <c r="C339" s="0">
+      <c r="C339">
         <v>10.436265793971542</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="0" t="s">
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
         <v>339</v>
       </c>
-      <c r="B340" s="0">
+      <c r="B340">
         <v>11.302471017768655</v>
       </c>
-      <c r="C340" s="0">
+      <c r="C340">
         <v>9.325043371053825</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="0" t="s">
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
         <v>340</v>
       </c>
-      <c r="B341" s="0">
+      <c r="B341">
         <v>11.302471017768655</v>
       </c>
-      <c r="C341" s="0">
+      <c r="C341">
         <v>9.325043371053825</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="0" t="s">
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
         <v>341</v>
       </c>
-      <c r="B342" s="0">
+      <c r="B342">
         <v>11.242361029572137</v>
       </c>
-      <c r="C342" s="0">
+      <c r="C342">
         <v>10.300884705818577</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="0" t="s">
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
         <v>342</v>
       </c>
-      <c r="B343" s="0">
+      <c r="B343">
         <v>10.566814048743263</v>
       </c>
-      <c r="C343" s="0">
+      <c r="C343">
         <v>9.481614559074611</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="0" t="s">
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
         <v>343</v>
       </c>
-      <c r="B344" s="0">
+      <c r="B344">
         <v>11.50161886769722</v>
       </c>
-      <c r="C344" s="0">
+      <c r="C344">
         <v>10.19896773345935</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="0" t="s">
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
         <v>344</v>
       </c>
-      <c r="B345" s="0">
+      <c r="B345">
         <v>11.579200930611</v>
       </c>
-      <c r="C345" s="0">
+      <c r="C345">
         <v>10.504722782449088</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="0" t="s">
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
         <v>345</v>
       </c>
-      <c r="B346" s="0">
+      <c r="B346">
         <v>11.286389273652203</v>
       </c>
-      <c r="C346" s="0">
+      <c r="C346">
         <v>9.8672811646030389</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="0" t="s">
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
         <v>346</v>
       </c>
-      <c r="B347" s="0">
+      <c r="B347">
         <v>11.253111610288016</v>
       </c>
-      <c r="C347" s="0">
+      <c r="C347">
         <v>10.376784841102012</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="0" t="s">
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
         <v>347</v>
       </c>
-      <c r="B348" s="0">
+      <c r="B348">
         <v>11.197123374595305</v>
       </c>
-      <c r="C348" s="0">
+      <c r="C348">
         <v>10.148262211682431</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="0" t="s">
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
         <v>348</v>
       </c>
-      <c r="B349" s="0">
+      <c r="B349">
         <v>11.335507103384959</v>
       </c>
-      <c r="C349" s="0">
+      <c r="C349">
         <v>9.3401032390224294</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="0" t="s">
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
         <v>349</v>
       </c>
-      <c r="B350" s="0">
+      <c r="B350">
         <v>11.335507103384959</v>
       </c>
-      <c r="C350" s="0">
+      <c r="C350">
         <v>9.3401032390224294</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="0" t="s">
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
         <v>350</v>
       </c>
-      <c r="B351" s="0">
+      <c r="B351">
         <v>11.455276326590356</v>
       </c>
-      <c r="C351" s="0">
+      <c r="C351">
         <v>10.62583783676131</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="0" t="s">
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
         <v>351</v>
       </c>
-      <c r="B352" s="0">
+      <c r="B352">
         <v>11.283018455441443</v>
       </c>
-      <c r="C352" s="0">
+      <c r="C352">
         <v>10.341730466891155</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="0" t="s">
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
         <v>352</v>
       </c>
-      <c r="B353" s="0">
+      <c r="B353">
         <v>11.272468813027448</v>
       </c>
-      <c r="C353" s="0">
+      <c r="C353">
         <v>10.818717620065931</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="0" t="s">
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
         <v>353</v>
       </c>
-      <c r="B354" s="0">
+      <c r="B354">
         <v>11.272468813027448</v>
       </c>
-      <c r="C354" s="0">
+      <c r="C354">
         <v>10.818717620065931</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="0" t="s">
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
         <v>354</v>
       </c>
-      <c r="B355" s="0">
+      <c r="B355">
         <v>12.00270639191268</v>
       </c>
-      <c r="C355" s="0">
+      <c r="C355">
         <v>10.366524128498904</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="0" t="s">
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
         <v>355</v>
       </c>
-      <c r="B356" s="0">
+      <c r="B356">
         <v>12.00270639191268</v>
       </c>
-      <c r="C356" s="0">
+      <c r="C356">
         <v>10.366524128498904</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="0" t="s">
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
         <v>356</v>
       </c>
-      <c r="B357" s="0">
+      <c r="B357">
         <v>11.014615202347667</v>
       </c>
-      <c r="C357" s="0">
+      <c r="C357">
         <v>9.3218168577348575</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="0" t="s">
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
         <v>357</v>
       </c>
-      <c r="B358" s="0">
+      <c r="B358">
         <v>11.014615202347667</v>
       </c>
-      <c r="C358" s="0">
+      <c r="C358">
         <v>9.3218168577348575</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="0" t="s">
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
         <v>358</v>
       </c>
-      <c r="B359" s="0">
+      <c r="B359">
         <v>11.698647503894932</v>
       </c>
-      <c r="C359" s="0">
+      <c r="C359">
         <v>10.117173394474801</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="0" t="s">
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
         <v>359</v>
       </c>
-      <c r="B360" s="0">
+      <c r="B360">
         <v>11.701012778465127</v>
       </c>
-      <c r="C360" s="0">
+      <c r="C360">
         <v>10.11356473946126</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="0" t="s">
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
         <v>360</v>
       </c>
-      <c r="B361" s="0">
+      <c r="B361">
         <v>10.525794463845402</v>
       </c>
-      <c r="C361" s="0">
+      <c r="C361">
         <v>9.7397600304174166</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="0" t="s">
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
         <v>361</v>
       </c>
-      <c r="B362" s="0">
+      <c r="B362">
         <v>10.525794463845402</v>
       </c>
-      <c r="C362" s="0">
+      <c r="C362">
         <v>9.7397600304174166</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="0" t="s">
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
         <v>362</v>
       </c>
-      <c r="B363" s="0">
+      <c r="B363">
         <v>10.902214298280441</v>
       </c>
-      <c r="C363" s="0">
+      <c r="C363">
         <v>9.2461923358297646</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="0" t="s">
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
         <v>363</v>
       </c>
-      <c r="B364" s="0">
+      <c r="B364">
         <v>10.902214298280441</v>
       </c>
-      <c r="C364" s="0">
+      <c r="C364">
         <v>9.2461923358297646</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="0" t="s">
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
         <v>364</v>
       </c>
-      <c r="B365" s="0">
+      <c r="B365">
         <v>10.999195025674489</v>
       </c>
-      <c r="C365" s="0">
+      <c r="C365">
         <v>10.590559802151624</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="0" t="s">
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
         <v>365</v>
       </c>
-      <c r="B366" s="0">
+      <c r="B366">
         <v>9.9027171908072411</v>
       </c>
-      <c r="C366" s="0">
+      <c r="C366">
         <v>8.5752464453066679</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="0" t="s">
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
         <v>366</v>
       </c>
-      <c r="B367" s="0">
+      <c r="B367">
         <v>11.051751238919346</v>
       </c>
-      <c r="C367" s="0">
+      <c r="C367">
         <v>9.2646817426599437</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="0" t="s">
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
         <v>367</v>
       </c>
-      <c r="B368" s="0">
+      <c r="B368">
         <v>11.012876968880507</v>
       </c>
-      <c r="C368" s="0">
+      <c r="C368">
         <v>9.9059644756877052</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="0" t="s">
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
         <v>368</v>
       </c>
-      <c r="B369" s="0">
+      <c r="B369">
         <v>11.29940701379221</v>
       </c>
-      <c r="C369" s="0">
+      <c r="C369">
         <v>9.4573190630049488</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="0" t="s">
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
         <v>369</v>
       </c>
-      <c r="B370" s="0">
+      <c r="B370">
         <v>11.300357274193823</v>
       </c>
-      <c r="C370" s="0">
+      <c r="C370">
         <v>9.3182581260680877</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="0" t="s">
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
         <v>370</v>
       </c>
-      <c r="B371" s="0">
+      <c r="B371">
         <v>12.064823817609533</v>
       </c>
-      <c r="C371" s="0">
+      <c r="C371">
         <v>10.456102540700297</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="0" t="s">
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
         <v>371</v>
       </c>
-      <c r="B372" s="0">
+      <c r="B372">
         <v>11.95754624951519</v>
       </c>
-      <c r="C372" s="0">
+      <c r="C372">
         <v>11.083952842710676</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="0" t="s">
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
         <v>372</v>
       </c>
-      <c r="B373" s="0">
+      <c r="B373">
         <v>11.712019722813704</v>
       </c>
-      <c r="C373" s="0">
+      <c r="C373">
         <v>9.6035559191754025</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="0" t="s">
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
         <v>373</v>
       </c>
-      <c r="B374" s="0">
+      <c r="B374">
         <v>11.703298215419441</v>
       </c>
-      <c r="C374" s="0">
+      <c r="C374">
         <v>10.120229897052001</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="0" t="s">
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
         <v>374</v>
       </c>
-      <c r="B375" s="0">
+      <c r="B375">
         <v>11.972353792505801</v>
       </c>
-      <c r="C375" s="0">
+      <c r="C375">
         <v>10.652556585294811</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="0" t="s">
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
         <v>375</v>
       </c>
-      <c r="B376" s="0">
+      <c r="B376">
         <v>11.742777079008743</v>
       </c>
-      <c r="C376" s="0">
+      <c r="C376">
         <v>10.050441960943795</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="0" t="s">
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
         <v>376</v>
       </c>
-      <c r="B377" s="0">
+      <c r="B377">
         <v>12.416097929317063</v>
       </c>
-      <c r="C377" s="0">
+      <c r="C377">
         <v>10.851659960410126</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="0" t="s">
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
         <v>377</v>
       </c>
-      <c r="B378" s="0">
+      <c r="B378">
         <v>12.416097929317063</v>
       </c>
-      <c r="C378" s="0">
+      <c r="C378">
         <v>10.851659960410126</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="0" t="s">
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
         <v>378</v>
       </c>
-      <c r="B379" s="0">
+      <c r="B379">
         <v>12.416097929317063</v>
       </c>
-      <c r="C379" s="0">
+      <c r="C379">
         <v>10.851659960410126</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="0" t="s">
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
         <v>379</v>
       </c>
-      <c r="B380" s="0">
+      <c r="B380">
         <v>11.973863530793761</v>
       </c>
-      <c r="C380" s="0">
+      <c r="C380">
         <v>10.750910885253447</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="0" t="s">
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
         <v>380</v>
       </c>
-      <c r="B381" s="0">
+      <c r="B381">
         <v>11.322576564605425</v>
       </c>
-      <c r="C381" s="0">
+      <c r="C381">
         <v>9.8481321462471776</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="0" t="s">
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
         <v>381</v>
       </c>
-      <c r="B382" s="0">
+      <c r="B382">
         <v>11.685610588532983</v>
       </c>
-      <c r="C382" s="0">
+      <c r="C382">
         <v>10.399303848227586</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="0" t="s">
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
         <v>382</v>
       </c>
-      <c r="B383" s="0">
+      <c r="B383">
         <v>11.685610588532983</v>
       </c>
-      <c r="C383" s="0">
+      <c r="C383">
         <v>10.399303848227586</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="0" t="s">
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
         <v>383</v>
       </c>
-      <c r="B384" s="0">
+      <c r="B384">
         <v>10.077974557289364</v>
       </c>
-      <c r="C384" s="0">
+      <c r="C384">
         <v>9.8875603562791543</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="0" t="s">
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
         <v>384</v>
       </c>
-      <c r="B385" s="0">
+      <c r="B385">
         <v>10.650545529374121</v>
       </c>
-      <c r="C385" s="0">
+      <c r="C385">
         <v>9.243396688206678</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="0" t="s">
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
         <v>385</v>
       </c>
-      <c r="B386" s="0">
+      <c r="B386">
         <v>10.650545529374121</v>
       </c>
-      <c r="C386" s="0">
+      <c r="C386">
         <v>9.243396688206678</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="0" t="s">
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
         <v>386</v>
       </c>
-      <c r="B387" s="0">
+      <c r="B387">
         <v>10.650545529374121</v>
       </c>
-      <c r="C387" s="0">
+      <c r="C387">
         <v>9.243396688206678</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="0" t="s">
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
         <v>387</v>
       </c>
-      <c r="B388" s="0">
+      <c r="B388">
         <v>10.650545529374121</v>
       </c>
-      <c r="C388" s="0">
+      <c r="C388">
         <v>9.243396688206678</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="0" t="s">
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
         <v>388</v>
       </c>
-      <c r="B389" s="0">
+      <c r="B389">
         <v>11.71273785751371</v>
       </c>
-      <c r="C389" s="0">
+      <c r="C389">
         <v>9.5451043432857823</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="0" t="s">
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
         <v>389</v>
       </c>
-      <c r="B390" s="0">
+      <c r="B390">
         <v>11.71273785751371</v>
       </c>
-      <c r="C390" s="0">
+      <c r="C390">
         <v>9.5451043432857823</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="0" t="s">
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
         <v>390</v>
       </c>
-      <c r="B391" s="0">
+      <c r="B391">
         <v>11.71273785751371</v>
       </c>
-      <c r="C391" s="0">
+      <c r="C391">
         <v>9.5451043432857823</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="0" t="s">
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
         <v>391</v>
       </c>
-      <c r="B392" s="0">
+      <c r="B392">
         <v>10.986320371829986</v>
       </c>
-      <c r="C392" s="0">
+      <c r="C392">
         <v>9.9026436159542186</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="0" t="s">
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
         <v>392</v>
       </c>
-      <c r="B393" s="0">
+      <c r="B393">
         <v>10.986320371829986</v>
       </c>
-      <c r="C393" s="0">
+      <c r="C393">
         <v>9.9026436159542186</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="0" t="s">
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
         <v>393</v>
       </c>
-      <c r="B394" s="0">
+      <c r="B394">
         <v>10.986320371829986</v>
       </c>
-      <c r="C394" s="0">
+      <c r="C394">
         <v>9.9026436159542186</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="0" t="s">
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
         <v>394</v>
       </c>
-      <c r="B395" s="0">
+      <c r="B395">
         <v>10.976590860340227</v>
       </c>
-      <c r="C395" s="0">
+      <c r="C395">
         <v>9.9288709668842987</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="0" t="s">
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
         <v>395</v>
       </c>
-      <c r="B396" s="0">
+      <c r="B396">
         <v>10.976590860340227</v>
       </c>
-      <c r="C396" s="0">
+      <c r="C396">
         <v>9.9288709668842987</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="0" t="s">
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
         <v>396</v>
       </c>
-      <c r="B397" s="0">
+      <c r="B397">
         <v>11.300420883250936</v>
       </c>
-      <c r="C397" s="0">
+      <c r="C397">
         <v>9.412514799679192</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="0" t="s">
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
         <v>397</v>
       </c>
-      <c r="B398" s="0">
+      <c r="B398">
         <v>11.297617440955571</v>
       </c>
-      <c r="C398" s="0">
+      <c r="C398">
         <v>9.4488093594552982</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="0" t="s">
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
         <v>398</v>
       </c>
-      <c r="B399" s="0">
+      <c r="B399">
         <v>10.747672818633026</v>
       </c>
-      <c r="C399" s="0">
+      <c r="C399">
         <v>9.2028827384076344</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="0" t="s">
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
         <v>399</v>
       </c>
-      <c r="B400" s="0">
+      <c r="B400">
         <v>11.300785629508121</v>
       </c>
-      <c r="C400" s="0">
+      <c r="C400">
         <v>9.4247784157978618</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="0" t="s">
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
         <v>400</v>
       </c>
-      <c r="B401" s="0">
+      <c r="B401">
         <v>11.901806893059764</v>
       </c>
-      <c r="C401" s="0">
+      <c r="C401">
         <v>9.5488939214570205</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="0" t="s">
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
         <v>401</v>
       </c>
-      <c r="B402" s="0">
+      <c r="B402">
         <v>11.364857275889232</v>
       </c>
-      <c r="C402" s="0">
+      <c r="C402">
         <v>9.3640321444415733</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="0" t="s">
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
         <v>402</v>
       </c>
-      <c r="B403" s="0">
+      <c r="B403">
         <v>11.364857275889232</v>
       </c>
-      <c r="C403" s="0">
+      <c r="C403">
         <v>9.3640321444415733</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="0" t="s">
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
         <v>403</v>
       </c>
-      <c r="B404" s="0">
+      <c r="B404">
         <v>11.30082020676462</v>
       </c>
-      <c r="C404" s="0">
+      <c r="C404">
         <v>9.3060775779238778</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="0" t="s">
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
         <v>404</v>
       </c>
-      <c r="B405" s="0">
+      <c r="B405">
         <v>11.008715752084518</v>
       </c>
-      <c r="C405" s="0">
+      <c r="C405">
         <v>9.2575858658177133</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="0" t="s">
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
         <v>405</v>
       </c>
-      <c r="B406" s="0">
+      <c r="B406">
         <v>11.008715752084518</v>
       </c>
-      <c r="C406" s="0">
+      <c r="C406">
         <v>9.2575858658177133</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="0" t="s">
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
         <v>406</v>
       </c>
-      <c r="B407" s="0">
+      <c r="B407">
         <v>12.645484234880678</v>
       </c>
-      <c r="C407" s="0">
+      <c r="C407">
         <v>11.590789332343283</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="0" t="s">
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
         <v>407</v>
       </c>
-      <c r="B408" s="0">
+      <c r="B408">
         <v>11.704879056696191</v>
       </c>
-      <c r="C408" s="0">
+      <c r="C408">
         <v>9.7014588388101313</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="0" t="s">
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
         <v>408</v>
       </c>
-      <c r="B409" s="0">
+      <c r="B409">
         <v>11.704879056696191</v>
       </c>
-      <c r="C409" s="0">
+      <c r="C409">
         <v>9.7014588388101313</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="0" t="s">
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
         <v>409</v>
       </c>
-      <c r="B410" s="0">
+      <c r="B410">
         <v>11.308507788672012</v>
       </c>
-      <c r="C410" s="0">
+      <c r="C410">
         <v>9.4079218870419243</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="0" t="s">
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
         <v>410</v>
       </c>
-      <c r="B411" s="0">
+      <c r="B411">
         <v>10.807669353726061</v>
       </c>
-      <c r="C411" s="0">
+      <c r="C411">
         <v>9.5807965195356459</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="0" t="s">
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
         <v>411</v>
       </c>
-      <c r="B412" s="0">
+      <c r="B412">
         <v>10.807669353726061</v>
       </c>
-      <c r="C412" s="0">
+      <c r="C412">
         <v>9.5807965195356459</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="0" t="s">
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
         <v>412</v>
       </c>
-      <c r="B413" s="0">
+      <c r="B413">
         <v>11.307328976999173</v>
       </c>
-      <c r="C413" s="0">
+      <c r="C413">
         <v>9.4620046783937024</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="0" t="s">
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
         <v>413</v>
       </c>
-      <c r="B414" s="0">
+      <c r="B414">
         <v>11.001281453744419</v>
       </c>
-      <c r="C414" s="0">
+      <c r="C414">
         <v>9.3924451266340903</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="0" t="s">
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
         <v>414</v>
       </c>
-      <c r="B415" s="0">
+      <c r="B415">
         <v>10.992042191881042</v>
       </c>
-      <c r="C415" s="0">
+      <c r="C415">
         <v>9.9537701216576977</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="0" t="s">
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
         <v>415</v>
       </c>
-      <c r="B416" s="0">
+      <c r="B416">
         <v>11.714714260762493</v>
       </c>
-      <c r="C416" s="0">
+      <c r="C416">
         <v>9.6366082219541944</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="0" t="s">
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
         <v>416</v>
       </c>
-      <c r="B417" s="0">
+      <c r="B417">
         <v>10.896925593497659</v>
       </c>
-      <c r="C417" s="0">
+      <c r="C417">
         <v>10.30216464060975</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="0" t="s">
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
         <v>417</v>
       </c>
-      <c r="B418" s="0">
+      <c r="B418">
         <v>10.896925593497659</v>
       </c>
-      <c r="C418" s="0">
+      <c r="C418">
         <v>10.30216464060975</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="0" t="s">
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
         <v>418</v>
       </c>
-      <c r="B419" s="0">
+      <c r="B419">
         <v>10.185097980188612</v>
       </c>
-      <c r="C419" s="0">
+      <c r="C419">
         <v>9.6537250132589527</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="0" t="s">
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
         <v>419</v>
       </c>
-      <c r="B420" s="0">
+      <c r="B420">
         <v>11.719649255605376</v>
       </c>
-      <c r="C420" s="0">
+      <c r="C420">
         <v>9.590839770623969</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="0" t="s">
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
         <v>420</v>
       </c>
-      <c r="B421" s="0">
+      <c r="B421">
         <v>11.719649255605376</v>
       </c>
-      <c r="C421" s="0">
+      <c r="C421">
         <v>9.590839770623969</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="0" t="s">
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
         <v>421</v>
       </c>
-      <c r="B422" s="0">
+      <c r="B422">
         <v>10.941488540007198</v>
       </c>
-      <c r="C422" s="0">
+      <c r="C422">
         <v>9.9455595762901527</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="0" t="s">
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
         <v>422</v>
       </c>
-      <c r="B423" s="0">
+      <c r="B423">
         <v>10.941488540007198</v>
       </c>
-      <c r="C423" s="0">
+      <c r="C423">
         <v>9.9455595762901527</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="0" t="s">
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
         <v>423</v>
       </c>
-      <c r="B424" s="0">
+      <c r="B424">
         <v>11.01023273544854</v>
       </c>
-      <c r="C424" s="0">
+      <c r="C424">
         <v>9.3602894405398924</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="0" t="s">
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
         <v>424</v>
       </c>
-      <c r="B425" s="0">
+      <c r="B425">
         <v>11.684207500199943</v>
       </c>
-      <c r="C425" s="0">
+      <c r="C425">
         <v>10.379887356102138</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="0" t="s">
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
         <v>425</v>
       </c>
-      <c r="B426" s="0">
+      <c r="B426">
         <v>11.71103646303442</v>
       </c>
-      <c r="C426" s="0">
+      <c r="C426">
         <v>9.5680189401567155</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="0" t="s">
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
         <v>426</v>
       </c>
-      <c r="B427" s="0">
+      <c r="B427">
         <v>10.266525251291533</v>
       </c>
-      <c r="C427" s="0">
+      <c r="C427">
         <v>8.77745891970857</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="0" t="s">
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
         <v>427</v>
       </c>
-      <c r="B428" s="0">
+      <c r="B428">
         <v>12.694906694163528</v>
       </c>
-      <c r="C428" s="0">
+      <c r="C428">
         <v>9.5905867769297224</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="0" t="s">
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
         <v>428</v>
       </c>
-      <c r="B429" s="0">
+      <c r="B429">
         <v>9.5283372029976139</v>
       </c>
-      <c r="C429" s="0">
+      <c r="C429">
         <v>10.966451172882365</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="0" t="s">
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
         <v>429</v>
       </c>
-      <c r="B430" s="0">
+      <c r="B430">
         <v>10.023708189660157</v>
       </c>
-      <c r="C430" s="0">
+      <c r="C430">
         <v>6.752794996117041</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="0" t="s">
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
         <v>430</v>
       </c>
-      <c r="B431" s="0">
+      <c r="B431">
         <v>11.0054866335404</v>
       </c>
-      <c r="C431" s="0">
+      <c r="C431">
         <v>9.3464061759694204</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="0" t="s">
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
         <v>431</v>
       </c>
-      <c r="B432" s="0">
+      <c r="B432">
         <v>11.995510590125068</v>
       </c>
-      <c r="C432" s="0">
+      <c r="C432">
         <v>9.5188710754737613</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="0" t="s">
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
         <v>432</v>
       </c>
-      <c r="B433" s="0">
+      <c r="B433">
         <v>10.194601970619342</v>
       </c>
-      <c r="C433" s="0">
+      <c r="C433">
         <v>9.6326739358518552</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="0" t="s">
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
         <v>433</v>
       </c>
-      <c r="B434" s="0">
+      <c r="B434">
         <v>10.296532061268893</v>
       </c>
-      <c r="C434" s="0">
+      <c r="C434">
         <v>8.9681346855158264</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="0" t="s">
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
         <v>434</v>
       </c>
-      <c r="B435" s="0">
+      <c r="B435">
         <v>11.186142978375049</v>
       </c>
-      <c r="C435" s="0">
+      <c r="C435">
         <v>10.865043173141526</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="0" t="s">
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
         <v>435</v>
       </c>
-      <c r="B436" s="0">
+      <c r="B436">
         <v>10.781247558195403</v>
       </c>
-      <c r="C436" s="0">
+      <c r="C436">
         <v>9.828745684577175</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="0" t="s">
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
         <v>436</v>
       </c>
-      <c r="B437" s="0">
+      <c r="B437">
         <v>10.277165041934751</v>
       </c>
-      <c r="C437" s="0">
+      <c r="C437">
         <v>8.9628142370237924</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="0" t="s">
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
         <v>437</v>
       </c>
-      <c r="B438" s="0">
+      <c r="B438">
         <v>11.01358090029672</v>
       </c>
-      <c r="C438" s="0">
+      <c r="C438">
         <v>9.6038915268776393</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="0" t="s">
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
         <v>438</v>
       </c>
-      <c r="B439" s="0">
+      <c r="B439">
         <v>10.562723285580885</v>
       </c>
-      <c r="C439" s="0">
+      <c r="C439">
         <v>9.6735088432674594</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="0" t="s">
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
         <v>439</v>
       </c>
-      <c r="B440" s="0">
+      <c r="B440">
         <v>10.562723285580885</v>
       </c>
-      <c r="C440" s="0">
+      <c r="C440">
         <v>9.6735088432674594</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="0" t="s">
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
         <v>440</v>
       </c>
-      <c r="B441" s="0">
+      <c r="B441">
         <v>10.991589216872462</v>
       </c>
-      <c r="C441" s="0">
+      <c r="C441">
         <v>9.7459031978660047</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="0" t="s">
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
         <v>441</v>
       </c>
-      <c r="B442" s="0">
+      <c r="B442">
         <v>10.574685429340031</v>
       </c>
-      <c r="C442" s="0">
+      <c r="C442">
         <v>9.3389492049674274</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="0" t="s">
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
         <v>442</v>
       </c>
-      <c r="B443" s="0">
+      <c r="B443">
         <v>10.574685429340031</v>
       </c>
-      <c r="C443" s="0">
+      <c r="C443">
         <v>9.3389492049674274</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="0" t="s">
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
         <v>443</v>
       </c>
-      <c r="B444" s="0">
+      <c r="B444">
         <v>10.941412770850691</v>
       </c>
-      <c r="C444" s="0">
+      <c r="C444">
         <v>10.332448734574015</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="0" t="s">
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
         <v>444</v>
       </c>
-      <c r="B445" s="0">
+      <c r="B445">
         <v>11.304485699089458</v>
       </c>
-      <c r="C445" s="0">
+      <c r="C445">
         <v>9.419945135263486</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="0" t="s">
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
         <v>445</v>
       </c>
-      <c r="B446" s="0">
+      <c r="B446">
         <v>11.588536390572274</v>
       </c>
-      <c r="C446" s="0">
+      <c r="C446">
         <v>9.9366897809536692</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="0" t="s">
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
         <v>446</v>
       </c>
-      <c r="B447" s="0">
+      <c r="B447">
         <v>11.98460749271902</v>
       </c>
-      <c r="C447" s="0">
+      <c r="C447">
         <v>10.436261072075835</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="0" t="s">
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
         <v>447</v>
       </c>
-      <c r="B448" s="0">
+      <c r="B448">
         <v>12.399318912103759</v>
       </c>
-      <c r="C448" s="0">
+      <c r="C448">
         <v>10.78472199172103</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="0" t="s">
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
         <v>448</v>
       </c>
-      <c r="B449" s="0">
+      <c r="B449">
         <v>11.708140894042611</v>
       </c>
-      <c r="C449" s="0">
+      <c r="C449">
         <v>9.4868112337569048</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="0" t="s">
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
         <v>449</v>
       </c>
-      <c r="B450" s="0">
+      <c r="B450">
         <v>9.8130470856781784</v>
       </c>
-      <c r="C450" s="0">
+      <c r="C450">
         <v>9.122319275773112</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="0" t="s">
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
         <v>450</v>
       </c>
-      <c r="B451" s="0">
+      <c r="B451">
         <v>9.8130470856781784</v>
       </c>
-      <c r="C451" s="0">
+      <c r="C451">
         <v>9.122319275773112</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="0" t="s">
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
         <v>451</v>
       </c>
-      <c r="B452" s="0">
+      <c r="B452">
         <v>11.009348178132623</v>
       </c>
-      <c r="C452" s="0">
+      <c r="C452">
         <v>9.2375789152165133</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="0" t="s">
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
         <v>452</v>
       </c>
-      <c r="B453" s="0">
+      <c r="B453">
         <v>11.693056850126974</v>
       </c>
-      <c r="C453" s="0">
+      <c r="C453">
         <v>10.240506301093252</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="0" t="s">
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
         <v>453</v>
       </c>
-      <c r="B454" s="0">
+      <c r="B454">
         <v>11.282402319357578</v>
       </c>
-      <c r="C454" s="0">
+      <c r="C454">
         <v>10.035977019139455</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="0" t="s">
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
         <v>454</v>
       </c>
-      <c r="B455" s="0">
+      <c r="B455">
         <v>11.282402319357578</v>
       </c>
-      <c r="C455" s="0">
+      <c r="C455">
         <v>10.035977019139455</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="0" t="s">
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
         <v>455</v>
       </c>
-      <c r="B456" s="0">
+      <c r="B456">
         <v>9.8485737582572828</v>
       </c>
-      <c r="C456" s="0">
+      <c r="C456">
         <v>8.9033779980894838</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="0" t="s">
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
         <v>456</v>
       </c>
-      <c r="B457" s="0">
+      <c r="B457">
         <v>11.007420109229434</v>
       </c>
-      <c r="C457" s="0">
+      <c r="C457">
         <v>9.2688508886840264</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="0" t="s">
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
         <v>457</v>
       </c>
-      <c r="B458" s="0">
+      <c r="B458">
         <v>10.301895754431225</v>
       </c>
-      <c r="C458" s="0">
+      <c r="C458">
         <v>8.934988828042405</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="0" t="s">
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
         <v>458</v>
       </c>
-      <c r="B459" s="0">
+      <c r="B459">
         <v>11.710900317382809</v>
       </c>
-      <c r="C459" s="0">
+      <c r="C459">
         <v>9.4672262776779341</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="0" t="s">
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
         <v>459</v>
       </c>
-      <c r="B460" s="0">
+      <c r="B460">
         <v>9.8968639192383296</v>
       </c>
-      <c r="C460" s="0">
+      <c r="C460">
         <v>8.8980096504880812</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="0" t="s">
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
         <v>460</v>
       </c>
-      <c r="B461" s="0">
+      <c r="B461">
         <v>11.276001257726904</v>
       </c>
-      <c r="C461" s="0">
+      <c r="C461">
         <v>10.002469299714855</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="0" t="s">
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
         <v>461</v>
       </c>
-      <c r="B462" s="0">
+      <c r="B462">
         <v>11.685756718663189</v>
       </c>
-      <c r="C462" s="0">
+      <c r="C462">
         <v>10.48954673436068</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="0" t="s">
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
         <v>462</v>
       </c>
-      <c r="B463" s="0">
+      <c r="B463">
         <v>11.697661247615008</v>
       </c>
-      <c r="C463" s="0">
+      <c r="C463">
         <v>10.374743672431629</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="0" t="s">
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
         <v>463</v>
       </c>
-      <c r="B464" s="0">
+      <c r="B464">
         <v>11.014086134855059</v>
       </c>
-      <c r="C464" s="0">
+      <c r="C464">
         <v>9.2718294576403402</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="0" t="s">
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
         <v>464</v>
       </c>
-      <c r="B465" s="0">
+      <c r="B465">
         <v>11.298329669403095</v>
       </c>
-      <c r="C465" s="0">
+      <c r="C465">
         <v>9.4665436307536179</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="0" t="s">
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
         <v>465</v>
       </c>
-      <c r="B466" s="0">
+      <c r="B466">
         <v>11.824523367763609</v>
       </c>
-      <c r="C466" s="0">
+      <c r="C466">
         <v>10.792450008892954</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="0" t="s">
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
         <v>466</v>
       </c>
-      <c r="B467" s="0">
+      <c r="B467">
         <v>11.298428275509348</v>
       </c>
-      <c r="C467" s="0">
+      <c r="C467">
         <v>9.4083959005720637</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="0" t="s">
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
         <v>467</v>
       </c>
-      <c r="B468" s="0">
+      <c r="B468">
         <v>10.990691149326889</v>
       </c>
-      <c r="C468" s="0">
+      <c r="C468">
         <v>9.449559523790672</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="0" t="s">
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
         <v>468</v>
       </c>
-      <c r="B469" s="0">
+      <c r="B469">
         <v>9.8854926229411024</v>
       </c>
-      <c r="C469" s="0">
+      <c r="C469">
         <v>8.6481375300902812</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="0" t="s">
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
         <v>469</v>
       </c>
-      <c r="B470" s="0">
+      <c r="B470">
         <v>8.3652517647536833</v>
       </c>
-      <c r="C470" s="0">
+      <c r="C470">
         <v>8.3009297477053661</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="0" t="s">
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
         <v>470</v>
       </c>
-      <c r="B471" s="0">
+      <c r="B471">
         <v>8.8141496154734202</v>
       </c>
-      <c r="C471" s="0">
+      <c r="C471">
         <v>9.8962421900042727</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="0" t="s">
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
         <v>471</v>
       </c>
-      <c r="B472" s="0">
+      <c r="B472">
         <v>10.96960059986211</v>
       </c>
-      <c r="C472" s="0">
+      <c r="C472">
         <v>9.9036566421012786</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="0" t="s">
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
         <v>472</v>
       </c>
-      <c r="B473" s="0">
+      <c r="B473">
         <v>10.916216351073723</v>
       </c>
-      <c r="C473" s="0">
+      <c r="C473">
         <v>10.208690141975527</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="0" t="s">
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
         <v>473</v>
       </c>
-      <c r="B474" s="0">
+      <c r="B474">
         <v>10.523245071308089</v>
       </c>
-      <c r="C474" s="0">
+      <c r="C474">
         <v>9.7245533155157791</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="0" t="s">
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
         <v>474</v>
       </c>
-      <c r="B475" s="0">
+      <c r="B475">
         <v>10.517577107015848</v>
       </c>
-      <c r="C475" s="0">
+      <c r="C475">
         <v>9.6407041706369316</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="0" t="s">
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
         <v>475</v>
       </c>
-      <c r="B476" s="0">
+      <c r="B476">
         <v>12.334212894807145</v>
       </c>
-      <c r="C476" s="0">
+      <c r="C476">
         <v>9.6604102572775616</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="0" t="s">
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
         <v>476</v>
       </c>
-      <c r="B477" s="0">
+      <c r="B477">
         <v>10.297630302343476</v>
       </c>
-      <c r="C477" s="0">
+      <c r="C477">
         <v>9.0050776644149089</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="0" t="s">
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
         <v>477</v>
       </c>
-      <c r="B478" s="0">
+      <c r="B478">
         <v>9.1774004881546052</v>
       </c>
-      <c r="C478" s="0">
+      <c r="C478">
         <v>8.089203739104331</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="0" t="s">
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
         <v>478</v>
       </c>
-      <c r="B479" s="0">
+      <c r="B479">
         <v>9.1774004881546052</v>
       </c>
-      <c r="C479" s="0">
+      <c r="C479">
         <v>8.089203739104331</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="0" t="s">
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
         <v>479</v>
       </c>
-      <c r="B480" s="0">
+      <c r="B480">
         <v>11.990495013988886</v>
       </c>
-      <c r="C480" s="0">
+      <c r="C480">
         <v>10.383563117329141</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="0" t="s">
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
         <v>480</v>
       </c>
-      <c r="B481" s="0">
+      <c r="B481">
         <v>11.990495013988886</v>
       </c>
-      <c r="C481" s="0">
+      <c r="C481">
         <v>10.383563117329141</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="0" t="s">
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
         <v>481</v>
       </c>
-      <c r="B482" s="0">
+      <c r="B482">
         <v>11.990495013988886</v>
       </c>
-      <c r="C482" s="0">
+      <c r="C482">
         <v>10.383563117329141</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="0" t="s">
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
         <v>482</v>
       </c>
-      <c r="B483" s="0">
+      <c r="B483">
         <v>11.007553834957674</v>
       </c>
-      <c r="C483" s="0">
+      <c r="C483">
         <v>9.3676807746983997</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="0" t="s">
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
         <v>483</v>
       </c>
-      <c r="B484" s="0">
+      <c r="B484">
         <v>11.007553834957674</v>
       </c>
-      <c r="C484" s="0">
+      <c r="C484">
         <v>9.3676807746983997</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="0" t="s">
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
         <v>484</v>
       </c>
-      <c r="B485" s="0">
+      <c r="B485">
         <v>11.709340571237725</v>
       </c>
-      <c r="C485" s="0">
+      <c r="C485">
         <v>9.6797044079870691</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="0" t="s">
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
         <v>485</v>
       </c>
-      <c r="B486" s="0">
+      <c r="B486">
         <v>11.712583549905871</v>
       </c>
-      <c r="C486" s="0">
+      <c r="C486">
         <v>9.6408065521340109</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="0" t="s">
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
         <v>486</v>
       </c>
-      <c r="B487" s="0">
+      <c r="B487">
         <v>11.710762669757077</v>
       </c>
-      <c r="C487" s="0">
+      <c r="C487">
         <v>9.4830784317037295</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="0" t="s">
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
         <v>487</v>
       </c>
-      <c r="B488" s="0">
+      <c r="B488">
         <v>11.710762669757077</v>
       </c>
-      <c r="C488" s="0">
+      <c r="C488">
         <v>9.4830784317037295</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="0" t="s">
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
         <v>488</v>
       </c>
-      <c r="B489" s="0">
+      <c r="B489">
         <v>11.30469237294575</v>
       </c>
-      <c r="C489" s="0">
+      <c r="C489">
         <v>9.4378912033388467</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="0" t="s">
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
         <v>489</v>
       </c>
-      <c r="B490" s="0">
+      <c r="B490">
         <v>10.970468635131724</v>
       </c>
-      <c r="C490" s="0">
+      <c r="C490">
         <v>9.8910890243749314</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="0" t="s">
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
         <v>490</v>
       </c>
-      <c r="B491" s="0">
+      <c r="B491">
         <v>11.309698207495403</v>
       </c>
-      <c r="C491" s="0">
+      <c r="C491">
         <v>9.3951903414348976</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="0" t="s">
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
         <v>491</v>
       </c>
-      <c r="B492" s="0">
+      <c r="B492">
         <v>10.296965125490015</v>
       </c>
-      <c r="C492" s="0">
+      <c r="C492">
         <v>8.8253519156825639</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="0" t="s">
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
         <v>492</v>
       </c>
-      <c r="B493" s="0">
+      <c r="B493">
         <v>11.993570211692324</v>
       </c>
-      <c r="C493" s="0">
+      <c r="C493">
         <v>9.7252320768331124</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="0" t="s">
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
         <v>493</v>
       </c>
-      <c r="B494" s="0">
+      <c r="B494">
         <v>11.993570211692324</v>
       </c>
-      <c r="C494" s="0">
+      <c r="C494">
         <v>9.7252320768331124</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="0" t="s">
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
         <v>494</v>
       </c>
-      <c r="B495" s="0">
+      <c r="B495">
         <v>10.976787647332278</v>
       </c>
-      <c r="C495" s="0">
+      <c r="C495">
         <v>9.9117247925436764</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="0" t="s">
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
         <v>495</v>
       </c>
-      <c r="B496" s="0">
+      <c r="B496">
         <v>11.769827648061195</v>
       </c>
-      <c r="C496" s="0">
+      <c r="C496">
         <v>10.143148201549625</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="0" t="s">
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
         <v>496</v>
       </c>
-      <c r="B497" s="0">
+      <c r="B497">
         <v>10.448020793875745</v>
       </c>
-      <c r="C497" s="0">
+      <c r="C497">
         <v>10.008048048324065</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="0" t="s">
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
         <v>497</v>
       </c>
-      <c r="B498" s="0">
+      <c r="B498">
         <v>11.005823373988891</v>
       </c>
-      <c r="C498" s="0">
+      <c r="C498">
         <v>9.3755438200766257</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="0" t="s">
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
         <v>498</v>
       </c>
-      <c r="B499" s="0">
+      <c r="B499">
         <v>10.764693426397582</v>
       </c>
-      <c r="C499" s="0">
+      <c r="C499">
         <v>9.1969628536918542</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="0" t="s">
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
         <v>499</v>
       </c>
-      <c r="B500" s="0">
+      <c r="B500">
         <v>10.764693426397582</v>
       </c>
-      <c r="C500" s="0">
+      <c r="C500">
         <v>9.1969628536918542</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="0" t="s">
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
         <v>500</v>
       </c>
-      <c r="B501" s="0">
+      <c r="B501">
         <v>10.592558981145411</v>
       </c>
-      <c r="C501" s="0">
+      <c r="C501">
         <v>9.1480654240786308</v>
       </c>
     </row>
-    <row r="502">
-      <c r="A502" s="0" t="s">
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
         <v>501</v>
       </c>
-      <c r="B502" s="0">
+      <c r="B502">
         <v>12.370393651326362</v>
       </c>
-      <c r="C502" s="0">
+      <c r="C502">
         <v>11.180916069661698</v>
       </c>
     </row>
-    <row r="503">
-      <c r="A503" s="0" t="s">
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
         <v>502</v>
       </c>
-      <c r="B503" s="0">
+      <c r="B503">
         <v>12.370393651326362</v>
       </c>
-      <c r="C503" s="0">
+      <c r="C503">
         <v>11.180916069661698</v>
       </c>
     </row>
-    <row r="504">
-      <c r="A504" s="0" t="s">
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
         <v>503</v>
       </c>
-      <c r="B504" s="0">
+      <c r="B504">
         <v>10.876981937465343</v>
       </c>
-      <c r="C504" s="0">
+      <c r="C504">
         <v>10.22317963183772</v>
       </c>
     </row>
-    <row r="505">
-      <c r="A505" s="0" t="s">
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
         <v>504</v>
       </c>
-      <c r="B505" s="0">
+      <c r="B505">
         <v>11.007493050614501</v>
       </c>
-      <c r="C505" s="0">
+      <c r="C505">
         <v>9.2950737637711089</v>
       </c>
     </row>
-    <row r="506">
-      <c r="A506" s="0" t="s">
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
         <v>505</v>
       </c>
-      <c r="B506" s="0">
+      <c r="B506">
         <v>11.304917160381736</v>
       </c>
-      <c r="C506" s="0">
+      <c r="C506">
         <v>9.2897515360676266</v>
       </c>
     </row>
-    <row r="507">
-      <c r="A507" s="0" t="s">
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
         <v>506</v>
       </c>
-      <c r="B507" s="0">
+      <c r="B507">
         <v>10.990412273114664</v>
       </c>
-      <c r="C507" s="0">
+      <c r="C507">
         <v>9.6939623167348046</v>
       </c>
     </row>
-    <row r="508">
-      <c r="A508" s="0" t="s">
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
         <v>507</v>
       </c>
-      <c r="B508" s="0">
+      <c r="B508">
         <v>11.232488816649429</v>
       </c>
-      <c r="C508" s="0">
+      <c r="C508">
         <v>10.398410933471636</v>
       </c>
     </row>
-    <row r="509">
-      <c r="A509" s="0" t="s">
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
         <v>508</v>
       </c>
-      <c r="B509" s="0">
+      <c r="B509">
         <v>11.361342995770388</v>
       </c>
-      <c r="C509" s="0">
+      <c r="C509">
         <v>9.3841629253445085</v>
       </c>
     </row>
-    <row r="510">
-      <c r="A510" s="0" t="s">
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
         <v>509</v>
       </c>
-      <c r="B510" s="0">
+      <c r="B510">
         <v>11.361342995770388</v>
       </c>
-      <c r="C510" s="0">
+      <c r="C510">
         <v>9.3841629253445085</v>
       </c>
     </row>
-    <row r="511">
-      <c r="A511" s="0" t="s">
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
         <v>510</v>
       </c>
-      <c r="B511" s="0">
+      <c r="B511">
         <v>10.873337225657592</v>
       </c>
-      <c r="C511" s="0">
+      <c r="C511">
         <v>9.8058330000297733</v>
       </c>
     </row>
-    <row r="512">
-      <c r="A512" s="0" t="s">
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
         <v>511</v>
       </c>
-      <c r="B512" s="0">
+      <c r="B512">
         <v>10.873337225657592</v>
       </c>
-      <c r="C512" s="0">
+      <c r="C512">
         <v>9.8058330000297733</v>
       </c>
     </row>
-    <row r="513">
-      <c r="A513" s="0" t="s">
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
         <v>512</v>
       </c>
-      <c r="B513" s="0">
+      <c r="B513">
         <v>10.873337225657592</v>
       </c>
-      <c r="C513" s="0">
+      <c r="C513">
         <v>9.8058330000297733</v>
       </c>
     </row>
-    <row r="514">
-      <c r="A514" s="0" t="s">
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
         <v>513</v>
       </c>
-      <c r="B514" s="0">
+      <c r="B514">
         <v>11.584670007536115</v>
       </c>
-      <c r="C514" s="0">
+      <c r="C514">
         <v>10.436780801367442</v>
       </c>
     </row>
-    <row r="515">
-      <c r="A515" s="0" t="s">
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
         <v>514</v>
       </c>
-      <c r="B515" s="0">
+      <c r="B515">
         <v>11.584670007536115</v>
       </c>
-      <c r="C515" s="0">
+      <c r="C515">
         <v>10.436780801367442</v>
       </c>
     </row>
-    <row r="516">
-      <c r="A516" s="0" t="s">
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
         <v>515</v>
       </c>
-      <c r="B516" s="0">
+      <c r="B516">
         <v>11.584670007536115</v>
       </c>
-      <c r="C516" s="0">
+      <c r="C516">
         <v>10.436780801367442</v>
       </c>
     </row>
-    <row r="517">
-      <c r="A517" s="0" t="s">
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
         <v>516</v>
       </c>
-      <c r="B517" s="0">
+      <c r="B517">
         <v>11.584670007536115</v>
       </c>
-      <c r="C517" s="0">
+      <c r="C517">
         <v>10.436780801367442</v>
       </c>
     </row>
-    <row r="518">
-      <c r="A518" s="0" t="s">
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
         <v>517</v>
       </c>
-      <c r="B518" s="0">
+      <c r="B518">
         <v>11.003002085843393</v>
       </c>
-      <c r="C518" s="0">
+      <c r="C518">
         <v>9.1755002092196847</v>
       </c>
     </row>
-    <row r="519">
-      <c r="A519" s="0" t="s">
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
         <v>518</v>
       </c>
-      <c r="B519" s="0">
+      <c r="B519">
         <v>10.471849295200688</v>
       </c>
-      <c r="C519" s="0">
+      <c r="C519">
         <v>9.9618109726406558</v>
       </c>
     </row>
-    <row r="520">
-      <c r="A520" s="0" t="s">
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
         <v>519</v>
       </c>
-      <c r="B520" s="0">
+      <c r="B520">
         <v>10.471849295200688</v>
       </c>
-      <c r="C520" s="0">
+      <c r="C520">
         <v>9.9618109726406558</v>
       </c>
     </row>
-    <row r="521">
-      <c r="A521" s="0" t="s">
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
         <v>520</v>
       </c>
-      <c r="B521" s="0">
+      <c r="B521">
         <v>10.86005881865691</v>
       </c>
-      <c r="C521" s="0">
+      <c r="C521">
         <v>10.405618512188228</v>
       </c>
     </row>
-    <row r="522">
-      <c r="A522" s="0" t="s">
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
         <v>521</v>
       </c>
-      <c r="B522" s="0">
+      <c r="B522">
         <v>10.86005881865691</v>
       </c>
-      <c r="C522" s="0">
+      <c r="C522">
         <v>10.405618512188228</v>
       </c>
     </row>
-    <row r="523">
-      <c r="A523" s="0" t="s">
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
         <v>522</v>
       </c>
-      <c r="B523" s="0">
+      <c r="B523">
         <v>11.270148457819454</v>
       </c>
-      <c r="C523" s="0">
+      <c r="C523">
         <v>10.196949961574974</v>
       </c>
     </row>
-    <row r="524">
-      <c r="A524" s="0" t="s">
+    <row r="524" spans="1:3">
+      <c r="A524" t="s">
         <v>523</v>
       </c>
-      <c r="B524" s="0">
+      <c r="B524">
         <v>11.877071864564424</v>
       </c>
-      <c r="C524" s="0">
+      <c r="C524">
         <v>11.737692693836546</v>
       </c>
     </row>
-    <row r="525">
-      <c r="A525" s="0" t="s">
+    <row r="525" spans="1:3">
+      <c r="A525" t="s">
         <v>524</v>
       </c>
-      <c r="B525" s="0">
+      <c r="B525">
         <v>10.075056082491777</v>
       </c>
-      <c r="C525" s="0">
+      <c r="C525">
         <v>9.3960356150555686</v>
       </c>
     </row>
-    <row r="526">
-      <c r="A526" s="0" t="s">
+    <row r="526" spans="1:3">
+      <c r="A526" t="s">
         <v>525</v>
       </c>
-      <c r="B526" s="0">
+      <c r="B526">
         <v>11.029184236938649</v>
       </c>
-      <c r="C526" s="0">
+      <c r="C526">
         <v>9.2308484629960716</v>
       </c>
     </row>
-    <row r="527">
-      <c r="A527" s="0" t="s">
+    <row r="527" spans="1:3">
+      <c r="A527" t="s">
         <v>526</v>
       </c>
-      <c r="B527" s="0">
+      <c r="B527">
         <v>9.8429885885037116</v>
       </c>
-      <c r="C527" s="0">
+      <c r="C527">
         <v>8.9706093530747886</v>
       </c>
     </row>
-    <row r="528">
-      <c r="A528" s="0" t="s">
+    <row r="528" spans="1:3">
+      <c r="A528" t="s">
         <v>527</v>
       </c>
-      <c r="B528" s="0">
+      <c r="B528">
         <v>9.8585983339327417</v>
       </c>
-      <c r="C528" s="0">
+      <c r="C528">
         <v>8.8475175169225899</v>
       </c>
     </row>
-    <row r="529">
-      <c r="A529" s="0" t="s">
+    <row r="529" spans="1:3">
+      <c r="A529" t="s">
         <v>528</v>
       </c>
-      <c r="B529" s="0">
+      <c r="B529">
         <v>10.299391073973704</v>
       </c>
-      <c r="C529" s="0">
+      <c r="C529">
         <v>8.983610397743119</v>
       </c>
     </row>
-    <row r="530">
-      <c r="A530" s="0" t="s">
+    <row r="530" spans="1:3">
+      <c r="A530" t="s">
         <v>529</v>
       </c>
-      <c r="B530" s="0">
+      <c r="B530">
         <v>10.447605988567998</v>
       </c>
-      <c r="C530" s="0">
+      <c r="C530">
         <v>9.0665524927327379</v>
       </c>
     </row>
-    <row r="531">
-      <c r="A531" s="0" t="s">
+    <row r="531" spans="1:3">
+      <c r="A531" t="s">
         <v>530</v>
       </c>
-      <c r="B531" s="0">
+      <c r="B531">
         <v>10.447605988567998</v>
       </c>
-      <c r="C531" s="0">
+      <c r="C531">
         <v>9.0665524927327379</v>
       </c>
     </row>
-    <row r="532">
-      <c r="A532" s="0" t="s">
+    <row r="532" spans="1:3">
+      <c r="A532" t="s">
         <v>531</v>
       </c>
-      <c r="B532" s="0">
+      <c r="B532">
         <v>10.295687289586347</v>
       </c>
-      <c r="C532" s="0">
+      <c r="C532">
         <v>8.9796211713789145</v>
       </c>
     </row>
-    <row r="533">
-      <c r="A533" s="0" t="s">
+    <row r="533" spans="1:3">
+      <c r="A533" t="s">
         <v>532</v>
       </c>
-      <c r="B533" s="0">
+      <c r="B533">
         <v>10.598893493377524</v>
       </c>
-      <c r="C533" s="0">
+      <c r="C533">
         <v>9.0506989758849947</v>
       </c>
     </row>
-    <row r="534">
-      <c r="A534" s="0" t="s">
+    <row r="534" spans="1:3">
+      <c r="A534" t="s">
         <v>533</v>
       </c>
-      <c r="B534" s="0">
+      <c r="B534">
         <v>10.592995910155253</v>
       </c>
-      <c r="C534" s="0">
+      <c r="C534">
         <v>9.0857404580539392</v>
       </c>
     </row>
-    <row r="535">
-      <c r="A535" s="0" t="s">
+    <row r="535" spans="1:3">
+      <c r="A535" t="s">
         <v>534</v>
       </c>
-      <c r="B535" s="0">
+      <c r="B535">
         <v>11.706838776992871</v>
       </c>
-      <c r="C535" s="0">
+      <c r="C535">
         <v>9.664095974753387</v>
       </c>
     </row>
-    <row r="536">
-      <c r="A536" s="0" t="s">
+    <row r="536" spans="1:3">
+      <c r="A536" t="s">
         <v>535</v>
       </c>
-      <c r="B536" s="0">
+      <c r="B536">
         <v>10.597452727363267</v>
       </c>
-      <c r="C536" s="0">
+      <c r="C536">
         <v>9.137799131384849</v>
       </c>
     </row>
-    <row r="537">
-      <c r="A537" s="0" t="s">
+    <row r="537" spans="1:3">
+      <c r="A537" t="s">
         <v>536</v>
       </c>
-      <c r="B537" s="0">
+      <c r="B537">
         <v>10.244915032733219</v>
       </c>
-      <c r="C537" s="0">
+      <c r="C537">
         <v>10.028031359823212</v>
       </c>
     </row>
-    <row r="538">
-      <c r="A538" s="0" t="s">
+    <row r="538" spans="1:3">
+      <c r="A538" t="s">
         <v>537</v>
       </c>
-      <c r="B538" s="0">
+      <c r="B538">
         <v>10.244915032733219</v>
       </c>
-      <c r="C538" s="0">
+      <c r="C538">
         <v>10.028031359823212</v>
       </c>
     </row>
-    <row r="539">
-      <c r="A539" s="0" t="s">
+    <row r="539" spans="1:3">
+      <c r="A539" t="s">
         <v>538</v>
       </c>
-      <c r="B539" s="0">
+      <c r="B539">
         <v>10.244915032733219</v>
       </c>
-      <c r="C539" s="0">
+      <c r="C539">
         <v>10.028031359823212</v>
       </c>
     </row>
-    <row r="540">
-      <c r="A540" s="0" t="s">
+    <row r="540" spans="1:3">
+      <c r="A540" t="s">
         <v>539</v>
       </c>
-      <c r="B540" s="0">
+      <c r="B540">
         <v>10.569728599961874</v>
       </c>
-      <c r="C540" s="0">
+      <c r="C540">
         <v>9.421960943566404</v>
       </c>
     </row>
-    <row r="541">
-      <c r="A541" s="0" t="s">
+    <row r="541" spans="1:3">
+      <c r="A541" t="s">
         <v>540</v>
       </c>
-      <c r="B541" s="0">
+      <c r="B541">
         <v>11.522749898461278</v>
       </c>
-      <c r="C541" s="0">
+      <c r="C541">
         <v>9.4539819056130909</v>
       </c>
     </row>
-    <row r="542">
-      <c r="A542" s="0" t="s">
+    <row r="542" spans="1:3">
+      <c r="A542" t="s">
         <v>541</v>
       </c>
-      <c r="B542" s="0">
+      <c r="B542">
         <v>12.70979908914647</v>
       </c>
-      <c r="C542" s="0">
+      <c r="C542">
         <v>10.611406480767972</v>
       </c>
     </row>
-    <row r="543">
-      <c r="A543" s="0" t="s">
+    <row r="543" spans="1:3">
+      <c r="A543" t="s">
         <v>542</v>
       </c>
-      <c r="B543" s="0">
+      <c r="B543">
         <v>11.299727621396642</v>
       </c>
-      <c r="C543" s="0">
+      <c r="C543">
         <v>9.3546823902581409</v>
       </c>
     </row>
-    <row r="544">
-      <c r="A544" s="0" t="s">
+    <row r="544" spans="1:3">
+      <c r="A544" t="s">
         <v>543</v>
       </c>
-      <c r="B544" s="0">
+      <c r="B544">
         <v>11.299727621396642</v>
       </c>
-      <c r="C544" s="0">
+      <c r="C544">
         <v>9.3546823902581409</v>
       </c>
     </row>
-    <row r="545">
-      <c r="A545" s="0" t="s">
+    <row r="545" spans="1:3">
+      <c r="A545" t="s">
         <v>544</v>
       </c>
-      <c r="B545" s="0">
+      <c r="B545">
         <v>11.299727621396642</v>
       </c>
-      <c r="C545" s="0">
+      <c r="C545">
         <v>9.3546823902581409</v>
       </c>
     </row>
-    <row r="546">
-      <c r="A546" s="0" t="s">
+    <row r="546" spans="1:3">
+      <c r="A546" t="s">
         <v>545</v>
       </c>
-      <c r="B546" s="0">
+      <c r="B546">
         <v>11.151688222454165</v>
       </c>
-      <c r="C546" s="0">
+      <c r="C546">
         <v>10.761385362309017</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>